--- a/Data.xlsx
+++ b/Data.xlsx
@@ -435,7 +435,7 @@
         <v>260000</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -478,7 +478,7 @@
         <v>450000</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -530,7 +530,7 @@
         <v>800000</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -553,7 +553,7 @@
         <v>500000</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -752,7 +752,7 @@
         <v>200000</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -775,7 +775,7 @@
         <v>440000</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -801,7 +801,7 @@
         <v>500000</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -827,7 +827,7 @@
         <v>500000</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -853,7 +853,7 @@
         <v>400000</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -925,7 +925,7 @@
         <v>400000</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -997,7 +997,7 @@
         <v>1000000</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -1046,7 +1046,7 @@
         <v>650000</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -1164,7 +1164,7 @@
         <v>200000</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>4</v>
@@ -1187,7 +1187,7 @@
         <v>510000</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -1265,7 +1265,7 @@
         <v>400000</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -1383,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -1501,7 +1501,7 @@
         <v>3</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -1576,7 +1576,7 @@
         <v>360000</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -1599,7 +1599,7 @@
         <v>1200000</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -1622,7 +1622,7 @@
         <v>400000</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -1648,7 +1648,7 @@
         <v>500000</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -1786,7 +1786,7 @@
         <v>500000</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -1858,7 +1858,7 @@
         <v>300000</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -1959,7 +1959,7 @@
         <v>300000</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -2302,7 +2302,7 @@
         <v>700000</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -2325,7 +2325,7 @@
         <v>3</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -2374,7 +2374,7 @@
         <v>550000</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -2423,7 +2423,7 @@
         <v>200000</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -2446,7 +2446,7 @@
         <v>480000</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -2472,7 +2472,7 @@
         <v>140000</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -2512,7 +2512,7 @@
         <v>50000</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -2601,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -2647,7 +2647,7 @@
         <v>1100000</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -3137,7 +3137,7 @@
         <v>350000</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -3364,7 +3364,7 @@
         <v>1000000</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -3390,7 +3390,7 @@
         <v>500000</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -3436,7 +3436,7 @@
         <v>950000</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -3462,7 +3462,7 @@
         <v>950000</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -3623,7 +3623,7 @@
         <v>500000</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -3643,7 +3643,7 @@
         <v>2</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
         <v>3</v>
@@ -3813,7 +3813,7 @@
         <v>2</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -3891,7 +3891,7 @@
         <v>400000</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -4491,7 +4491,7 @@
         <v>400000</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170">
         <v>4</v>
@@ -4511,7 +4511,7 @@
         <v>450000</v>
       </c>
       <c r="G171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -4661,7 +4661,7 @@
         <v>550000</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -4759,7 +4759,7 @@
         <v>800000</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -4883,7 +4883,7 @@
         <v>516000</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
         <v>2</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -5084,7 +5084,7 @@
         <v>400000</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
         <v>2</v>
@@ -5208,7 +5208,7 @@
         <v>700000</v>
       </c>
       <c r="G200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -5545,7 +5545,7 @@
         <v>700000</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -5571,7 +5571,7 @@
         <v>600000</v>
       </c>
       <c r="G215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
         <v>3</v>
@@ -5617,7 +5617,7 @@
         <v>450000</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217">
         <v>2</v>
@@ -5721,7 +5721,7 @@
         <v>1000000</v>
       </c>
       <c r="G221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -5839,7 +5839,7 @@
         <v>300000</v>
       </c>
       <c r="G226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226">
         <v>2</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="G228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
         <v>4</v>
@@ -5905,7 +5905,7 @@
         <v>550000</v>
       </c>
       <c r="G229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -5951,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="G231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231">
         <v>2</v>
@@ -6003,7 +6003,7 @@
         <v>1200000</v>
       </c>
       <c r="G233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233">
         <v>2</v>
@@ -6150,7 +6150,7 @@
         <v>480000</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
         <v>3</v>
@@ -6196,7 +6196,7 @@
         <v>500000</v>
       </c>
       <c r="G241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
         <v>2</v>
@@ -6248,7 +6248,7 @@
         <v>400000</v>
       </c>
       <c r="G243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243">
         <v>2</v>
@@ -6346,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="G247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H247">
         <v>2</v>
@@ -6409,7 +6409,7 @@
         <v>750000</v>
       </c>
       <c r="G250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H250">
         <v>2</v>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="G252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H252">
         <v>2</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="G253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H253">
         <v>2</v>
@@ -6538,7 +6538,7 @@
         <v>3</v>
       </c>
       <c r="G256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256">
         <v>2</v>
@@ -6590,7 +6590,7 @@
         <v>300000</v>
       </c>
       <c r="G258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H258">
         <v>2</v>
@@ -6789,7 +6789,7 @@
         <v>1200000</v>
       </c>
       <c r="G266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H266">
         <v>2</v>
@@ -7224,7 +7224,7 @@
         <v>5000000</v>
       </c>
       <c r="G284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H284">
         <v>2</v>
@@ -7250,7 +7250,7 @@
         <v>360000</v>
       </c>
       <c r="G285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H285">
         <v>2</v>
@@ -7403,7 +7403,7 @@
         <v>800000</v>
       </c>
       <c r="G291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H291">
         <v>2</v>
@@ -7455,7 +7455,7 @@
         <v>960000</v>
       </c>
       <c r="G293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H293">
         <v>2</v>
@@ -7579,7 +7579,7 @@
         <v>250000</v>
       </c>
       <c r="G298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H298">
         <v>2</v>
@@ -7657,7 +7657,7 @@
         <v>350000</v>
       </c>
       <c r="G301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H301">
         <v>2</v>
@@ -7807,7 +7807,7 @@
         <v>750000</v>
       </c>
       <c r="G307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H307">
         <v>2</v>
@@ -8049,7 +8049,7 @@
         <v>750000</v>
       </c>
       <c r="G317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H317">
         <v>2</v>
@@ -8153,7 +8153,7 @@
         <v>550000</v>
       </c>
       <c r="G321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H321">
         <v>4</v>
@@ -8202,7 +8202,7 @@
         <v>1000000</v>
       </c>
       <c r="G323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H323">
         <v>2</v>
@@ -8251,7 +8251,7 @@
         <v>630000</v>
       </c>
       <c r="G325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H325">
         <v>4</v>
@@ -8479,7 +8479,7 @@
         <v>300000</v>
       </c>
       <c r="G334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H334">
         <v>2</v>
@@ -8759,7 +8759,7 @@
         <v>360000</v>
       </c>
       <c r="G345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H345">
         <v>2</v>
@@ -8897,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="G351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H351">
         <v>3</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="G352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H352">
         <v>2</v>
@@ -8989,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="G355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H355">
         <v>2</v>
@@ -9093,7 +9093,7 @@
         <v>900000</v>
       </c>
       <c r="G359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H359">
         <v>2</v>
@@ -9119,7 +9119,7 @@
         <v>950000</v>
       </c>
       <c r="G360">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H360">
         <v>2</v>
@@ -9145,7 +9145,7 @@
         <v>100000</v>
       </c>
       <c r="G361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H361">
         <v>1</v>
@@ -9168,7 +9168,7 @@
         <v>200000</v>
       </c>
       <c r="G362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H362">
         <v>2</v>
@@ -9191,7 +9191,7 @@
         <v>360000</v>
       </c>
       <c r="G363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H363">
         <v>2</v>
@@ -9309,7 +9309,7 @@
         <v>300000</v>
       </c>
       <c r="G368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H368">
         <v>2</v>
@@ -9335,7 +9335,7 @@
         <v>600000</v>
       </c>
       <c r="G369">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H369">
         <v>3</v>
@@ -9664,7 +9664,7 @@
         <v>600000</v>
       </c>
       <c r="G382">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H382">
         <v>2</v>
@@ -9690,7 +9690,7 @@
         <v>360000</v>
       </c>
       <c r="G383">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H383">
         <v>2</v>
@@ -9739,7 +9739,7 @@
         <v>1000000</v>
       </c>
       <c r="G385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H385">
         <v>2</v>
@@ -9762,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="G386">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H386">
         <v>2</v>
@@ -9814,7 +9814,7 @@
         <v>600000</v>
       </c>
       <c r="G388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H388">
         <v>2</v>
@@ -10045,7 +10045,7 @@
         <v>540000</v>
       </c>
       <c r="G397">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H397">
         <v>2</v>
@@ -10120,7 +10120,7 @@
         <v>330000</v>
       </c>
       <c r="G400">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H400">
         <v>2</v>
@@ -10143,7 +10143,7 @@
         <v>0</v>
       </c>
       <c r="G401">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H401">
         <v>3</v>
@@ -10313,7 +10313,7 @@
         <v>500000</v>
       </c>
       <c r="G408">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H408">
         <v>2</v>
@@ -10541,7 +10541,7 @@
         <v>240000</v>
       </c>
       <c r="G417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H417">
         <v>2</v>
@@ -10590,7 +10590,7 @@
         <v>1000000</v>
       </c>
       <c r="G419">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H419">
         <v>2</v>
@@ -10642,7 +10642,7 @@
         <v>300000</v>
       </c>
       <c r="G421">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H421">
         <v>2</v>
@@ -10668,7 +10668,7 @@
         <v>700000</v>
       </c>
       <c r="G422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H422">
         <v>3</v>
@@ -10694,7 +10694,7 @@
         <v>130000</v>
       </c>
       <c r="G423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H423">
         <v>2</v>
@@ -10720,7 +10720,7 @@
         <v>400000</v>
       </c>
       <c r="G424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H424">
         <v>2</v>
@@ -10899,7 +10899,7 @@
         <v>400000</v>
       </c>
       <c r="G431">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H431">
         <v>2</v>
@@ -11346,7 +11346,7 @@
         <v>250000</v>
       </c>
       <c r="G449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H449">
         <v>1</v>
@@ -11372,7 +11372,7 @@
         <v>450000</v>
       </c>
       <c r="G450">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H450">
         <v>2</v>
@@ -11398,7 +11398,7 @@
         <v>240000</v>
       </c>
       <c r="G451">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H451">
         <v>3</v>
@@ -11447,7 +11447,7 @@
         <v>300000</v>
       </c>
       <c r="G453">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H453">
         <v>2</v>
@@ -11525,7 +11525,7 @@
         <v>410000</v>
       </c>
       <c r="G456">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H456">
         <v>2</v>
@@ -11577,7 +11577,7 @@
         <v>400000</v>
       </c>
       <c r="G458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H458">
         <v>4</v>
@@ -11655,7 +11655,7 @@
         <v>400000</v>
       </c>
       <c r="G461">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H461">
         <v>2</v>
@@ -11675,7 +11675,7 @@
         <v>0</v>
       </c>
       <c r="G462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H462">
         <v>2</v>
@@ -11701,7 +11701,7 @@
         <v>400000</v>
       </c>
       <c r="G463">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H463">
         <v>2</v>
@@ -11753,7 +11753,7 @@
         <v>150000</v>
       </c>
       <c r="G465">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H465">
         <v>1</v>
@@ -11776,7 +11776,7 @@
         <v>400000</v>
       </c>
       <c r="G466">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H466">
         <v>2</v>
@@ -11926,7 +11926,7 @@
         <v>320000</v>
       </c>
       <c r="G472">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H472">
         <v>2</v>
@@ -12053,7 +12053,7 @@
         <v>1000000</v>
       </c>
       <c r="G477">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H477">
         <v>2</v>
@@ -12079,7 +12079,7 @@
         <v>1000000</v>
       </c>
       <c r="G478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H478">
         <v>2</v>
@@ -12131,7 +12131,7 @@
         <v>650000</v>
       </c>
       <c r="G480">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H480">
         <v>2</v>
@@ -12206,7 +12206,7 @@
         <v>440000</v>
       </c>
       <c r="G483">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H483">
         <v>2</v>
@@ -12284,7 +12284,7 @@
         <v>230000</v>
       </c>
       <c r="G486">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H486">
         <v>2</v>
@@ -12362,7 +12362,7 @@
         <v>450000</v>
       </c>
       <c r="G489">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H489">
         <v>2</v>
@@ -12388,7 +12388,7 @@
         <v>400000</v>
       </c>
       <c r="G490">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H490">
         <v>2</v>
@@ -12440,7 +12440,7 @@
         <v>300000</v>
       </c>
       <c r="G492">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H492">
         <v>2</v>
@@ -12515,7 +12515,7 @@
         <v>320000</v>
       </c>
       <c r="G495">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H495">
         <v>2</v>
@@ -12538,7 +12538,7 @@
         <v>600000</v>
       </c>
       <c r="G496">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H496">
         <v>4</v>
@@ -12743,7 +12743,7 @@
         <v>800000</v>
       </c>
       <c r="G504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H504">
         <v>2</v>
@@ -12815,7 +12815,7 @@
         <v>600000</v>
       </c>
       <c r="G507">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H507">
         <v>2</v>
@@ -12916,7 +12916,7 @@
         <v>600000</v>
       </c>
       <c r="G511">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H511">
         <v>2</v>
@@ -13216,7 +13216,7 @@
         <v>1000000</v>
       </c>
       <c r="G523">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H523">
         <v>2</v>
@@ -13265,7 +13265,7 @@
         <v>700000</v>
       </c>
       <c r="G525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H525">
         <v>3</v>
@@ -13464,7 +13464,7 @@
         <v>700000</v>
       </c>
       <c r="G533">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H533">
         <v>4</v>
@@ -13793,7 +13793,7 @@
         <v>450000</v>
       </c>
       <c r="G546">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H546">
         <v>2</v>
@@ -13871,7 +13871,7 @@
         <v>500000</v>
       </c>
       <c r="G549">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H549">
         <v>4</v>
@@ -13897,7 +13897,7 @@
         <v>650000</v>
       </c>
       <c r="G550">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H550">
         <v>2</v>
@@ -13923,7 +13923,7 @@
         <v>330000</v>
       </c>
       <c r="G551">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H551">
         <v>2</v>
@@ -13949,7 +13949,7 @@
         <v>450000</v>
       </c>
       <c r="G552">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H552">
         <v>2</v>
@@ -14125,7 +14125,7 @@
         <v>650000</v>
       </c>
       <c r="G559">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H559">
         <v>3</v>
@@ -14148,7 +14148,7 @@
         <v>700000</v>
       </c>
       <c r="G560">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H560">
         <v>2</v>
@@ -14168,7 +14168,7 @@
         <v>0</v>
       </c>
       <c r="G561">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H561">
         <v>2</v>
@@ -14240,7 +14240,7 @@
         <v>230000</v>
       </c>
       <c r="G564">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H564">
         <v>1</v>
@@ -14442,7 +14442,7 @@
         <v>600000</v>
       </c>
       <c r="G572">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H572">
         <v>2</v>
@@ -14589,7 +14589,7 @@
         <v>600000</v>
       </c>
       <c r="G578">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H578">
         <v>2</v>
@@ -14641,7 +14641,7 @@
         <v>600000</v>
       </c>
       <c r="G580">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H580">
         <v>2</v>
@@ -14693,7 +14693,7 @@
         <v>450000</v>
       </c>
       <c r="G582">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H582">
         <v>2</v>
@@ -14765,7 +14765,7 @@
         <v>2500000</v>
       </c>
       <c r="G585">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H585">
         <v>4</v>
@@ -14791,7 +14791,7 @@
         <v>700000</v>
       </c>
       <c r="G586">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H586">
         <v>4</v>
@@ -14840,7 +14840,7 @@
         <v>2000000</v>
       </c>
       <c r="G588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H588">
         <v>2</v>
@@ -14915,7 +14915,7 @@
         <v>750000</v>
       </c>
       <c r="G591">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H591">
         <v>2</v>
@@ -15134,7 +15134,7 @@
         <v>400000</v>
       </c>
       <c r="G600">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H600">
         <v>2</v>
@@ -15261,7 +15261,7 @@
         <v>450000</v>
       </c>
       <c r="G605">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H605">
         <v>2</v>
@@ -15356,7 +15356,7 @@
         <v>800000</v>
       </c>
       <c r="G609">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H609">
         <v>3</v>
@@ -15462,7 +15462,7 @@
         <v>700000</v>
       </c>
       <c r="G614">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H614">
         <v>4</v>
@@ -15488,7 +15488,7 @@
         <v>500000</v>
       </c>
       <c r="G615">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H615">
         <v>2</v>
@@ -15557,7 +15557,7 @@
         <v>0</v>
       </c>
       <c r="G618">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H618">
         <v>2</v>
@@ -15609,7 +15609,7 @@
         <v>360000</v>
       </c>
       <c r="G620">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H620">
         <v>2</v>
@@ -15632,7 +15632,7 @@
         <v>400000</v>
       </c>
       <c r="G621">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H621">
         <v>2</v>
@@ -15733,7 +15733,7 @@
         <v>1100000</v>
       </c>
       <c r="G625">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H625">
         <v>2</v>
@@ -15759,7 +15759,7 @@
         <v>800000</v>
       </c>
       <c r="G626">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H626">
         <v>2</v>
@@ -15975,7 +15975,7 @@
         <v>440000</v>
       </c>
       <c r="G635">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H635">
         <v>2</v>
@@ -16047,7 +16047,7 @@
         <v>130000</v>
       </c>
       <c r="G638">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H638">
         <v>2</v>
@@ -16263,7 +16263,7 @@
         <v>480000</v>
       </c>
       <c r="G647">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H647">
         <v>2</v>
@@ -16556,7 +16556,7 @@
         <v>70000</v>
       </c>
       <c r="G660">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H660">
         <v>2</v>
@@ -16599,7 +16599,7 @@
         <v>0</v>
       </c>
       <c r="G662">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H662">
         <v>2</v>
@@ -16677,7 +16677,7 @@
         <v>400000</v>
       </c>
       <c r="G665">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H665">
         <v>2</v>
@@ -16879,7 +16879,7 @@
         <v>230000</v>
       </c>
       <c r="G673">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H673">
         <v>1</v>
@@ -16931,7 +16931,7 @@
         <v>350000</v>
       </c>
       <c r="G675">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H675">
         <v>2</v>
@@ -16957,7 +16957,7 @@
         <v>150000</v>
       </c>
       <c r="G676">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H676">
         <v>3</v>
@@ -17055,7 +17055,7 @@
         <v>500000</v>
       </c>
       <c r="G680">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H680">
         <v>2</v>
@@ -17176,7 +17176,7 @@
         <v>120000</v>
       </c>
       <c r="G685">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H685">
         <v>1</v>
@@ -17202,7 +17202,7 @@
         <v>1400000</v>
       </c>
       <c r="G686">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H686">
         <v>2</v>
@@ -17326,7 +17326,7 @@
         <v>500000</v>
       </c>
       <c r="G691">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H691">
         <v>2</v>
@@ -17349,7 +17349,7 @@
         <v>400000</v>
       </c>
       <c r="G692">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H692">
         <v>2</v>
@@ -17401,7 +17401,7 @@
         <v>240000</v>
       </c>
       <c r="G694">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H694">
         <v>3</v>
@@ -17539,7 +17539,7 @@
         <v>75000</v>
       </c>
       <c r="G700">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H700">
         <v>2</v>
@@ -17887,7 +17887,7 @@
         <v>0</v>
       </c>
       <c r="G715">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H715">
         <v>3</v>
@@ -17913,7 +17913,7 @@
         <v>150000</v>
       </c>
       <c r="G716">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H716">
         <v>1</v>
@@ -17936,7 +17936,7 @@
         <v>96000</v>
       </c>
       <c r="G717">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H717">
         <v>1</v>
@@ -17959,7 +17959,7 @@
         <v>120000</v>
       </c>
       <c r="G718">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H718">
         <v>2</v>
@@ -18031,7 +18031,7 @@
         <v>300000</v>
       </c>
       <c r="G721">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H721">
         <v>2</v>
@@ -18057,7 +18057,7 @@
         <v>400000</v>
       </c>
       <c r="G722">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H722">
         <v>3</v>
@@ -18077,7 +18077,7 @@
         <v>0</v>
       </c>
       <c r="G723">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H723">
         <v>2</v>
@@ -18149,7 +18149,7 @@
         <v>300000</v>
       </c>
       <c r="G726">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H726">
         <v>2</v>
@@ -18429,7 +18429,7 @@
         <v>400000</v>
       </c>
       <c r="G737">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H737">
         <v>2</v>
@@ -18478,7 +18478,7 @@
         <v>300000</v>
       </c>
       <c r="G739">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H739">
         <v>1</v>
@@ -18524,7 +18524,7 @@
         <v>200000</v>
       </c>
       <c r="G741">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H741">
         <v>1</v>
@@ -18590,7 +18590,7 @@
         <v>600000</v>
       </c>
       <c r="G744">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H744">
         <v>2</v>
@@ -18613,7 +18613,7 @@
         <v>400000</v>
       </c>
       <c r="G745">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H745">
         <v>2</v>
@@ -18766,7 +18766,7 @@
         <v>400000</v>
       </c>
       <c r="G751">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H751">
         <v>2</v>
@@ -18792,7 +18792,7 @@
         <v>400000</v>
       </c>
       <c r="G752">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H752">
         <v>2</v>
@@ -18815,7 +18815,7 @@
         <v>1</v>
       </c>
       <c r="G753">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H753">
         <v>2</v>
@@ -18841,7 +18841,7 @@
         <v>800000</v>
       </c>
       <c r="G754">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H754">
         <v>2</v>
@@ -18867,7 +18867,7 @@
         <v>600000</v>
       </c>
       <c r="G755">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H755">
         <v>2</v>
@@ -18890,7 +18890,7 @@
         <v>800000</v>
       </c>
       <c r="G756">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H756">
         <v>3</v>
@@ -18956,7 +18956,7 @@
         <v>3</v>
       </c>
       <c r="G759">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H759">
         <v>2</v>
@@ -19031,7 +19031,7 @@
         <v>3</v>
       </c>
       <c r="G762">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H762">
         <v>2</v>
@@ -19051,7 +19051,7 @@
         <v>3</v>
       </c>
       <c r="G763">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H763">
         <v>2</v>
@@ -19103,7 +19103,7 @@
         <v>300000</v>
       </c>
       <c r="G765">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H765">
         <v>4</v>
@@ -19198,7 +19198,7 @@
         <v>800000</v>
       </c>
       <c r="G769">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H769">
         <v>3</v>
@@ -19287,7 +19287,7 @@
         <v>400000</v>
       </c>
       <c r="G773">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H773">
         <v>2</v>
@@ -19359,7 +19359,7 @@
         <v>240000</v>
       </c>
       <c r="G776">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H776">
         <v>2</v>
@@ -19457,7 +19457,7 @@
         <v>600000</v>
       </c>
       <c r="G780">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H780">
         <v>2</v>
@@ -19503,7 +19503,7 @@
         <v>1000000</v>
       </c>
       <c r="G782">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H782">
         <v>2</v>
@@ -19526,7 +19526,7 @@
         <v>700000</v>
       </c>
       <c r="G783">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H783">
         <v>2</v>
@@ -19549,7 +19549,7 @@
         <v>1200000</v>
       </c>
       <c r="G784">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H784">
         <v>2</v>
@@ -19572,7 +19572,7 @@
         <v>520000</v>
       </c>
       <c r="G785">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H785">
         <v>2</v>
@@ -19595,7 +19595,7 @@
         <v>520000</v>
       </c>
       <c r="G786">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H786">
         <v>2</v>
@@ -19621,7 +19621,7 @@
         <v>400000</v>
       </c>
       <c r="G787">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H787">
         <v>2</v>
@@ -19644,7 +19644,7 @@
         <v>600000</v>
       </c>
       <c r="G788">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H788">
         <v>2</v>
@@ -19716,7 +19716,7 @@
         <v>1500000</v>
       </c>
       <c r="G791">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H791">
         <v>2</v>
@@ -19869,7 +19869,7 @@
         <v>1000000</v>
       </c>
       <c r="G797">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H797">
         <v>2</v>
@@ -19967,7 +19967,7 @@
         <v>1100000</v>
       </c>
       <c r="G801">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H801">
         <v>2</v>
@@ -20039,7 +20039,7 @@
         <v>480000</v>
       </c>
       <c r="G804">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H804">
         <v>2</v>
@@ -20134,7 +20134,7 @@
         <v>510000</v>
       </c>
       <c r="G808">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H808">
         <v>2</v>
@@ -20186,7 +20186,7 @@
         <v>480000</v>
       </c>
       <c r="G810">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H810">
         <v>2</v>
@@ -20379,7 +20379,7 @@
         <v>600000</v>
       </c>
       <c r="G818">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H818">
         <v>4</v>
@@ -20572,7 +20572,7 @@
         <v>0</v>
       </c>
       <c r="G826">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H826">
         <v>2</v>
@@ -20595,7 +20595,7 @@
         <v>200000</v>
       </c>
       <c r="G827">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H827">
         <v>1</v>
@@ -20771,7 +20771,7 @@
         <v>150000</v>
       </c>
       <c r="G834">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H834">
         <v>1</v>
@@ -20797,7 +20797,7 @@
         <v>180000</v>
       </c>
       <c r="G835">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H835">
         <v>2</v>
@@ -20875,7 +20875,7 @@
         <v>264000</v>
       </c>
       <c r="G838">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H838">
         <v>1</v>
@@ -20898,7 +20898,7 @@
         <v>100000</v>
       </c>
       <c r="G839">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H839">
         <v>1</v>
@@ -20976,7 +20976,7 @@
         <v>200000</v>
       </c>
       <c r="G842">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H842">
         <v>1</v>
@@ -21002,7 +21002,7 @@
         <v>200000</v>
       </c>
       <c r="G843">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H843">
         <v>1</v>
@@ -21022,7 +21022,7 @@
         <v>200000</v>
       </c>
       <c r="G844">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H844">
         <v>1</v>
@@ -21048,7 +21048,7 @@
         <v>200000</v>
       </c>
       <c r="G845">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H845">
         <v>1</v>
@@ -21097,7 +21097,7 @@
         <v>300000</v>
       </c>
       <c r="G847">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H847">
         <v>2</v>
@@ -21215,7 +21215,7 @@
         <v>1</v>
       </c>
       <c r="G852">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H852">
         <v>1</v>
@@ -21238,7 +21238,7 @@
         <v>100000</v>
       </c>
       <c r="G853">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H853">
         <v>1</v>
@@ -21264,7 +21264,7 @@
         <v>200000</v>
       </c>
       <c r="G854">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H854">
         <v>2</v>
@@ -21284,7 +21284,7 @@
         <v>300000</v>
       </c>
       <c r="G855">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H855">
         <v>1</v>
@@ -21333,7 +21333,7 @@
         <v>200000</v>
       </c>
       <c r="G857">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H857">
         <v>1</v>
@@ -21359,7 +21359,7 @@
         <v>300000</v>
       </c>
       <c r="G858">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H858">
         <v>1</v>
@@ -21385,7 +21385,7 @@
         <v>170000</v>
       </c>
       <c r="G859">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H859">
         <v>1</v>
@@ -21405,7 +21405,7 @@
         <v>120000</v>
       </c>
       <c r="G860">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H860">
         <v>1</v>
@@ -21428,7 +21428,7 @@
         <v>100000</v>
       </c>
       <c r="G861">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H861">
         <v>1</v>
@@ -21454,7 +21454,7 @@
         <v>250000</v>
       </c>
       <c r="G862">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H862">
         <v>1</v>
@@ -21480,7 +21480,7 @@
         <v>260000</v>
       </c>
       <c r="G863">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H863">
         <v>2</v>
@@ -21506,7 +21506,7 @@
         <v>400000</v>
       </c>
       <c r="G864">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H864">
         <v>2</v>
@@ -21529,7 +21529,7 @@
         <v>150000</v>
       </c>
       <c r="G865">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H865">
         <v>1</v>
@@ -21552,7 +21552,7 @@
         <v>390000</v>
       </c>
       <c r="G866">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H866">
         <v>1</v>
@@ -21578,7 +21578,7 @@
         <v>300000</v>
       </c>
       <c r="G867">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H867">
         <v>1</v>
@@ -21601,7 +21601,7 @@
         <v>150000</v>
       </c>
       <c r="G868">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H868">
         <v>1</v>
@@ -21624,7 +21624,7 @@
         <v>150000</v>
       </c>
       <c r="G869">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H869">
         <v>1</v>
@@ -21647,7 +21647,7 @@
         <v>100000</v>
       </c>
       <c r="G870">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H870">
         <v>1</v>
@@ -21670,7 +21670,7 @@
         <v>200000</v>
       </c>
       <c r="G871">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H871">
         <v>1</v>
@@ -21716,7 +21716,7 @@
         <v>200000</v>
       </c>
       <c r="G873">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H873">
         <v>1</v>
@@ -21742,7 +21742,7 @@
         <v>200000</v>
       </c>
       <c r="G874">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H874">
         <v>1</v>
@@ -21817,7 +21817,7 @@
         <v>150000</v>
       </c>
       <c r="G877">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H877">
         <v>1</v>
@@ -21840,7 +21840,7 @@
         <v>120000</v>
       </c>
       <c r="G878">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H878">
         <v>1</v>
@@ -21866,7 +21866,7 @@
         <v>200000</v>
       </c>
       <c r="G879">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H879">
         <v>1</v>
@@ -21892,7 +21892,7 @@
         <v>360000</v>
       </c>
       <c r="G880">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H880">
         <v>4</v>
@@ -21918,7 +21918,7 @@
         <v>130000</v>
       </c>
       <c r="G881">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H881">
         <v>2</v>
@@ -21938,7 +21938,7 @@
         <v>1</v>
       </c>
       <c r="G882">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H882">
         <v>1</v>
@@ -21964,7 +21964,7 @@
         <v>240000</v>
       </c>
       <c r="G883">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H883">
         <v>1</v>
@@ -21987,7 +21987,7 @@
         <v>220000</v>
       </c>
       <c r="G884">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H884">
         <v>1</v>
@@ -22013,7 +22013,7 @@
         <v>150000</v>
       </c>
       <c r="G885">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H885">
         <v>1</v>
@@ -22036,7 +22036,7 @@
         <v>100000</v>
       </c>
       <c r="G886">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H886">
         <v>1</v>
@@ -22059,7 +22059,7 @@
         <v>200000</v>
       </c>
       <c r="G887">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H887">
         <v>1</v>
@@ -22105,7 +22105,7 @@
         <v>30000</v>
       </c>
       <c r="G889">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H889">
         <v>1</v>
@@ -22180,7 +22180,7 @@
         <v>400000</v>
       </c>
       <c r="G892">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H892">
         <v>1</v>
@@ -22203,7 +22203,7 @@
         <v>180000</v>
       </c>
       <c r="G893">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H893">
         <v>1</v>
@@ -22226,7 +22226,7 @@
         <v>500000</v>
       </c>
       <c r="G894">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H894">
         <v>1</v>
@@ -22301,7 +22301,7 @@
         <v>120000</v>
       </c>
       <c r="G897">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H897">
         <v>1</v>
@@ -22376,7 +22376,7 @@
         <v>400000</v>
       </c>
       <c r="G900">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H900">
         <v>2</v>
@@ -22402,7 +22402,7 @@
         <v>500000</v>
       </c>
       <c r="G901">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H901">
         <v>1</v>
@@ -22480,7 +22480,7 @@
         <v>500000</v>
       </c>
       <c r="G904">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H904">
         <v>3</v>
@@ -22506,7 +22506,7 @@
         <v>400000</v>
       </c>
       <c r="G905">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H905">
         <v>2</v>
@@ -22532,7 +22532,7 @@
         <v>330000</v>
       </c>
       <c r="G906">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H906">
         <v>2</v>
@@ -22552,7 +22552,7 @@
         <v>1</v>
       </c>
       <c r="G907">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H907">
         <v>2</v>
@@ -22578,7 +22578,7 @@
         <v>390000</v>
       </c>
       <c r="G908">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H908">
         <v>4</v>
@@ -22601,7 +22601,7 @@
         <v>320000</v>
       </c>
       <c r="G909">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H909">
         <v>2</v>
@@ -22627,7 +22627,7 @@
         <v>500000</v>
       </c>
       <c r="G910">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H910">
         <v>2</v>
@@ -22653,7 +22653,7 @@
         <v>420000</v>
       </c>
       <c r="G911">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H911">
         <v>2</v>
@@ -22679,7 +22679,7 @@
         <v>450000</v>
       </c>
       <c r="G912">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H912">
         <v>2</v>
@@ -22705,7 +22705,7 @@
         <v>300000</v>
       </c>
       <c r="G913">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H913">
         <v>4</v>
@@ -22731,7 +22731,7 @@
         <v>300000</v>
       </c>
       <c r="G914">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H914">
         <v>2</v>
@@ -22751,7 +22751,7 @@
         <v>130000</v>
       </c>
       <c r="G915">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H915">
         <v>1</v>
@@ -22794,7 +22794,7 @@
         <v>0</v>
       </c>
       <c r="G917">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H917">
         <v>2</v>
@@ -22846,7 +22846,7 @@
         <v>550000</v>
       </c>
       <c r="G919">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H919">
         <v>2</v>
@@ -22967,7 +22967,7 @@
         <v>450000</v>
       </c>
       <c r="G924">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H924">
         <v>3</v>
@@ -23013,7 +23013,7 @@
         <v>640000</v>
       </c>
       <c r="G926">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H926">
         <v>2</v>
@@ -23039,7 +23039,7 @@
         <v>500000</v>
       </c>
       <c r="G927">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H927">
         <v>2</v>
@@ -23062,7 +23062,7 @@
         <v>450000</v>
       </c>
       <c r="G928">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H928">
         <v>2</v>
@@ -23085,7 +23085,7 @@
         <v>0</v>
       </c>
       <c r="G929">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H929">
         <v>2</v>
@@ -23157,7 +23157,7 @@
         <v>420000</v>
       </c>
       <c r="G932">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H932">
         <v>2</v>
@@ -23180,7 +23180,7 @@
         <v>700000</v>
       </c>
       <c r="G933">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H933">
         <v>2</v>
@@ -23223,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="G935">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H935">
         <v>1</v>
@@ -23318,7 +23318,7 @@
         <v>370000</v>
       </c>
       <c r="G939">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H939">
         <v>2</v>
@@ -23413,7 +23413,7 @@
         <v>1000000</v>
       </c>
       <c r="G943">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H943">
         <v>2</v>
@@ -23436,7 +23436,7 @@
         <v>1800000</v>
       </c>
       <c r="G944">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H944">
         <v>2</v>
@@ -23462,7 +23462,7 @@
         <v>400000</v>
       </c>
       <c r="G945">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H945">
         <v>2</v>
@@ -23488,7 +23488,7 @@
         <v>350000</v>
       </c>
       <c r="G946">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H946">
         <v>3</v>
@@ -23514,7 +23514,7 @@
         <v>500000</v>
       </c>
       <c r="G947">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H947">
         <v>2</v>
@@ -23540,7 +23540,7 @@
         <v>700000</v>
       </c>
       <c r="G948">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H948">
         <v>2</v>
@@ -23566,7 +23566,7 @@
         <v>550000</v>
       </c>
       <c r="G949">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H949">
         <v>2</v>
@@ -23592,7 +23592,7 @@
         <v>380000</v>
       </c>
       <c r="G950">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H950">
         <v>2</v>
@@ -23618,7 +23618,7 @@
         <v>500000</v>
       </c>
       <c r="G951">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H951">
         <v>2</v>
@@ -23644,7 +23644,7 @@
         <v>600000</v>
       </c>
       <c r="G952">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H952">
         <v>2</v>
@@ -23667,7 +23667,7 @@
         <v>600000</v>
       </c>
       <c r="G953">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H953">
         <v>2</v>
@@ -23693,7 +23693,7 @@
         <v>400000</v>
       </c>
       <c r="G954">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H954">
         <v>2</v>
@@ -23713,7 +23713,7 @@
         <v>350000</v>
       </c>
       <c r="G955">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H955">
         <v>2</v>
@@ -23736,7 +23736,7 @@
         <v>250000</v>
       </c>
       <c r="G956">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H956">
         <v>2</v>
@@ -23762,7 +23762,7 @@
         <v>780000</v>
       </c>
       <c r="G957">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H957">
         <v>2</v>
@@ -23788,7 +23788,7 @@
         <v>400000</v>
       </c>
       <c r="G958">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H958">
         <v>2</v>
@@ -23811,7 +23811,7 @@
         <v>0</v>
       </c>
       <c r="G959">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H959">
         <v>2</v>
@@ -23857,7 +23857,7 @@
         <v>400000</v>
       </c>
       <c r="G961">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H961">
         <v>2</v>
@@ -23883,7 +23883,7 @@
         <v>1000000</v>
       </c>
       <c r="G962">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H962">
         <v>2</v>
@@ -23909,7 +23909,7 @@
         <v>500000</v>
       </c>
       <c r="G963">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H963">
         <v>2</v>
@@ -23935,7 +23935,7 @@
         <v>650000</v>
       </c>
       <c r="G964">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H964">
         <v>2</v>
@@ -23958,7 +23958,7 @@
         <v>400000</v>
       </c>
       <c r="G965">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H965">
         <v>2</v>
@@ -23984,7 +23984,7 @@
         <v>800000</v>
       </c>
       <c r="G966">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H966">
         <v>2</v>
@@ -24010,7 +24010,7 @@
         <v>400000</v>
       </c>
       <c r="G967">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H967">
         <v>4</v>
@@ -24033,7 +24033,7 @@
         <v>600000</v>
       </c>
       <c r="G968">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H968">
         <v>2</v>
@@ -24059,7 +24059,7 @@
         <v>150000</v>
       </c>
       <c r="G969">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H969">
         <v>1</v>
@@ -24105,7 +24105,7 @@
         <v>0</v>
       </c>
       <c r="G971">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H971">
         <v>2</v>
@@ -24131,7 +24131,7 @@
         <v>860000</v>
       </c>
       <c r="G972">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H972">
         <v>2</v>
@@ -24154,7 +24154,7 @@
         <v>1000000</v>
       </c>
       <c r="G973">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H973">
         <v>2</v>
@@ -24180,7 +24180,7 @@
         <v>600000</v>
       </c>
       <c r="G974">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H974">
         <v>2</v>
@@ -24203,7 +24203,7 @@
         <v>300000</v>
       </c>
       <c r="G975">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H975">
         <v>3</v>
@@ -24229,7 +24229,7 @@
         <v>500000</v>
       </c>
       <c r="G976">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H976">
         <v>2</v>
@@ -24252,7 +24252,7 @@
         <v>0</v>
       </c>
       <c r="G977">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H977">
         <v>2</v>
@@ -24278,7 +24278,7 @@
         <v>400000</v>
       </c>
       <c r="G978">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H978">
         <v>2</v>
@@ -24304,7 +24304,7 @@
         <v>350000</v>
       </c>
       <c r="G979">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H979">
         <v>2</v>
@@ -24350,7 +24350,7 @@
         <v>500000</v>
       </c>
       <c r="G981">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H981">
         <v>2</v>
@@ -24376,7 +24376,7 @@
         <v>600000</v>
       </c>
       <c r="G982">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H982">
         <v>2</v>
@@ -24396,7 +24396,7 @@
         <v>200000</v>
       </c>
       <c r="G983">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H983">
         <v>3</v>
@@ -24422,7 +24422,7 @@
         <v>2000000</v>
       </c>
       <c r="G984">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H984">
         <v>4</v>
@@ -24448,7 +24448,7 @@
         <v>500000</v>
       </c>
       <c r="G985">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H985">
         <v>2</v>
@@ -24474,7 +24474,7 @@
         <v>700000</v>
       </c>
       <c r="G986">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H986">
         <v>2</v>
@@ -24500,7 +24500,7 @@
         <v>700000</v>
       </c>
       <c r="G987">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H987">
         <v>2</v>
@@ -24526,7 +24526,7 @@
         <v>800000</v>
       </c>
       <c r="G988">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H988">
         <v>2</v>
@@ -24552,7 +24552,7 @@
         <v>800000</v>
       </c>
       <c r="G989">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H989">
         <v>2</v>
@@ -24578,7 +24578,7 @@
         <v>400000</v>
       </c>
       <c r="G990">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H990">
         <v>2</v>
@@ -24601,7 +24601,7 @@
         <v>270000</v>
       </c>
       <c r="G991">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H991">
         <v>2</v>
@@ -24627,7 +24627,7 @@
         <v>420000</v>
       </c>
       <c r="G992">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H992">
         <v>2</v>
@@ -24653,7 +24653,7 @@
         <v>500000</v>
       </c>
       <c r="G993">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H993">
         <v>3</v>
@@ -24679,7 +24679,7 @@
         <v>470000</v>
       </c>
       <c r="G994">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H994">
         <v>3</v>
@@ -24705,7 +24705,7 @@
         <v>300000</v>
       </c>
       <c r="G995">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H995">
         <v>2</v>
@@ -24731,7 +24731,7 @@
         <v>324000</v>
       </c>
       <c r="G996">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H996">
         <v>4</v>
@@ -24757,7 +24757,7 @@
         <v>450000</v>
       </c>
       <c r="G997">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H997">
         <v>2</v>
@@ -24783,7 +24783,7 @@
         <v>400000</v>
       </c>
       <c r="G998">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H998">
         <v>2</v>
@@ -24809,7 +24809,7 @@
         <v>500000</v>
       </c>
       <c r="G999">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H999">
         <v>2</v>
@@ -24835,7 +24835,7 @@
         <v>500000</v>
       </c>
       <c r="G1000">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1000">
         <v>2</v>
@@ -24861,7 +24861,7 @@
         <v>420000</v>
       </c>
       <c r="G1001">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1001">
         <v>2</v>
@@ -24913,7 +24913,7 @@
         <v>300000</v>
       </c>
       <c r="G1003">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1003">
         <v>2</v>
@@ -24936,7 +24936,7 @@
         <v>300000</v>
       </c>
       <c r="G1004">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1004">
         <v>2</v>
@@ -24962,7 +24962,7 @@
         <v>450000</v>
       </c>
       <c r="G1005">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1005">
         <v>2</v>
@@ -24988,7 +24988,7 @@
         <v>900000</v>
       </c>
       <c r="G1006">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1006">
         <v>2</v>
@@ -25011,7 +25011,7 @@
         <v>0</v>
       </c>
       <c r="G1007">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1007">
         <v>2</v>
@@ -25037,7 +25037,7 @@
         <v>500000</v>
       </c>
       <c r="G1008">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1008">
         <v>2</v>
@@ -25060,7 +25060,7 @@
         <v>600000</v>
       </c>
       <c r="G1009">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1009">
         <v>3</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="G1010">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1010">
         <v>2</v>
@@ -25094,7 +25094,7 @@
         <v>1</v>
       </c>
       <c r="G1011">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1011">
         <v>2</v>
@@ -25120,7 +25120,7 @@
         <v>300000</v>
       </c>
       <c r="G1012">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1012">
         <v>2</v>
@@ -25146,7 +25146,7 @@
         <v>650000</v>
       </c>
       <c r="G1013">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1013">
         <v>2</v>
@@ -25172,7 +25172,7 @@
         <v>300000</v>
       </c>
       <c r="G1014">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1014">
         <v>2</v>
@@ -25195,7 +25195,7 @@
         <v>390000</v>
       </c>
       <c r="G1015">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1015">
         <v>2</v>
@@ -25221,7 +25221,7 @@
         <v>320000</v>
       </c>
       <c r="G1016">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1016">
         <v>2</v>
@@ -25247,7 +25247,7 @@
         <v>360000</v>
       </c>
       <c r="G1017">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1017">
         <v>2</v>
@@ -25270,7 +25270,7 @@
         <v>0</v>
       </c>
       <c r="G1018">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1018">
         <v>2</v>
@@ -25296,7 +25296,7 @@
         <v>320000</v>
       </c>
       <c r="G1019">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1019">
         <v>2</v>
@@ -25316,7 +25316,7 @@
         <v>0</v>
       </c>
       <c r="G1020">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1020">
         <v>2</v>
@@ -25339,7 +25339,7 @@
         <v>0</v>
       </c>
       <c r="G1021">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1021">
         <v>1</v>
@@ -25365,7 +25365,7 @@
         <v>300000</v>
       </c>
       <c r="G1022">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1022">
         <v>2</v>
@@ -25391,7 +25391,7 @@
         <v>360000</v>
       </c>
       <c r="G1023">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1023">
         <v>2</v>
@@ -25417,7 +25417,7 @@
         <v>320000</v>
       </c>
       <c r="G1024">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1024">
         <v>2</v>
@@ -25443,7 +25443,7 @@
         <v>430000</v>
       </c>
       <c r="G1025">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1025">
         <v>2</v>
@@ -25469,7 +25469,7 @@
         <v>400000</v>
       </c>
       <c r="G1026">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1026">
         <v>3</v>
@@ -25495,7 +25495,7 @@
         <v>420000</v>
       </c>
       <c r="G1027">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1027">
         <v>2</v>
@@ -25515,7 +25515,7 @@
         <v>500000</v>
       </c>
       <c r="G1028">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1028">
         <v>2</v>
@@ -25541,7 +25541,7 @@
         <v>600000</v>
       </c>
       <c r="G1029">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1029">
         <v>3</v>
@@ -25567,7 +25567,7 @@
         <v>600000</v>
       </c>
       <c r="G1030">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1030">
         <v>2</v>
@@ -25593,7 +25593,7 @@
         <v>5000000</v>
       </c>
       <c r="G1031">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1031">
         <v>2</v>
@@ -25619,7 +25619,7 @@
         <v>360000</v>
       </c>
       <c r="G1032">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1032">
         <v>2</v>
@@ -25642,7 +25642,7 @@
         <v>600000</v>
       </c>
       <c r="G1033">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1033">
         <v>2</v>
@@ -25668,7 +25668,7 @@
         <v>360000</v>
       </c>
       <c r="G1034">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1034">
         <v>2</v>
@@ -25691,7 +25691,7 @@
         <v>500000</v>
       </c>
       <c r="G1035">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1035">
         <v>2</v>
@@ -25714,7 +25714,7 @@
         <v>550000</v>
       </c>
       <c r="G1036">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1036">
         <v>2</v>
@@ -25737,7 +25737,7 @@
         <v>850000</v>
       </c>
       <c r="G1037">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1037">
         <v>2</v>
@@ -25760,7 +25760,7 @@
         <v>5000000</v>
       </c>
       <c r="G1038">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1038">
         <v>2</v>
@@ -25783,7 +25783,7 @@
         <v>840000</v>
       </c>
       <c r="G1039">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1039">
         <v>4</v>
@@ -25809,7 +25809,7 @@
         <v>120000</v>
       </c>
       <c r="G1040">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1040">
         <v>2</v>
@@ -25832,7 +25832,7 @@
         <v>360000</v>
       </c>
       <c r="G1041">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1041">
         <v>1</v>
@@ -25858,7 +25858,7 @@
         <v>300000</v>
       </c>
       <c r="G1042">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1042">
         <v>3</v>
@@ -25884,7 +25884,7 @@
         <v>800000</v>
       </c>
       <c r="G1043">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1043">
         <v>2</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="G1044">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1044">
         <v>2</v>
@@ -25933,7 +25933,7 @@
         <v>400000</v>
       </c>
       <c r="G1045">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1045">
         <v>2</v>
@@ -25959,7 +25959,7 @@
         <v>400000</v>
       </c>
       <c r="G1046">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1046">
         <v>2</v>
@@ -25976,7 +25976,7 @@
         <v>0</v>
       </c>
       <c r="G1047">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1047">
         <v>2</v>
@@ -25999,7 +25999,7 @@
         <v>550000</v>
       </c>
       <c r="G1048">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1048">
         <v>2</v>
@@ -26025,7 +26025,7 @@
         <v>350000</v>
       </c>
       <c r="G1049">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1049">
         <v>2</v>
@@ -26077,7 +26077,7 @@
         <v>250000</v>
       </c>
       <c r="G1051">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1051">
         <v>2</v>
@@ -26103,7 +26103,7 @@
         <v>350000</v>
       </c>
       <c r="G1052">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1052">
         <v>2</v>
@@ -26129,7 +26129,7 @@
         <v>300000</v>
       </c>
       <c r="G1053">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1053">
         <v>2</v>
@@ -26155,7 +26155,7 @@
         <v>550000</v>
       </c>
       <c r="G1054">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1054">
         <v>2</v>
@@ -26181,7 +26181,7 @@
         <v>220000</v>
       </c>
       <c r="G1055">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1055">
         <v>2</v>
@@ -26207,7 +26207,7 @@
         <v>300000</v>
       </c>
       <c r="G1056">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1056">
         <v>2</v>
@@ -26233,7 +26233,7 @@
         <v>800000</v>
       </c>
       <c r="G1057">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1057">
         <v>2</v>
@@ -26256,7 +26256,7 @@
         <v>400000</v>
       </c>
       <c r="G1058">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1058">
         <v>3</v>
@@ -26282,7 +26282,7 @@
         <v>360000</v>
       </c>
       <c r="G1059">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1059">
         <v>2</v>
@@ -26308,7 +26308,7 @@
         <v>650000</v>
       </c>
       <c r="G1060">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1060">
         <v>2</v>
@@ -26334,7 +26334,7 @@
         <v>420000</v>
       </c>
       <c r="G1061">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1061">
         <v>2</v>
@@ -26360,7 +26360,7 @@
         <v>400000</v>
       </c>
       <c r="G1062">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1062">
         <v>2</v>
@@ -26386,7 +26386,7 @@
         <v>700000</v>
       </c>
       <c r="G1063">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1063">
         <v>2</v>
@@ -26412,7 +26412,7 @@
         <v>500000</v>
       </c>
       <c r="G1064">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1064">
         <v>2</v>
@@ -26438,7 +26438,7 @@
         <v>360000</v>
       </c>
       <c r="G1065">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1065">
         <v>3</v>
@@ -26464,7 +26464,7 @@
         <v>600000</v>
       </c>
       <c r="G1066">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1066">
         <v>2</v>
@@ -26513,7 +26513,7 @@
         <v>370000</v>
       </c>
       <c r="G1068">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1068">
         <v>3</v>
@@ -26536,7 +26536,7 @@
         <v>1200000</v>
       </c>
       <c r="G1069">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1069">
         <v>4</v>
@@ -26562,7 +26562,7 @@
         <v>400000</v>
       </c>
       <c r="G1070">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1070">
         <v>2</v>
@@ -26579,7 +26579,7 @@
         <v>0</v>
       </c>
       <c r="G1071">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1071">
         <v>2</v>
@@ -26605,7 +26605,7 @@
         <v>700000</v>
       </c>
       <c r="G1072">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1072">
         <v>2</v>
@@ -26631,7 +26631,7 @@
         <v>360000</v>
       </c>
       <c r="G1073">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1073">
         <v>2</v>
@@ -26654,7 +26654,7 @@
         <v>420000</v>
       </c>
       <c r="G1074">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1074">
         <v>3</v>
@@ -26680,7 +26680,7 @@
         <v>300000</v>
       </c>
       <c r="G1075">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1075">
         <v>2</v>
@@ -26706,7 +26706,7 @@
         <v>340000</v>
       </c>
       <c r="G1076">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1076">
         <v>1</v>
@@ -26732,7 +26732,7 @@
         <v>390000</v>
       </c>
       <c r="G1077">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1077">
         <v>2</v>
@@ -26758,7 +26758,7 @@
         <v>450000</v>
       </c>
       <c r="G1078">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1078">
         <v>2</v>
@@ -26784,7 +26784,7 @@
         <v>300000</v>
       </c>
       <c r="G1079">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1079">
         <v>2</v>
@@ -26810,7 +26810,7 @@
         <v>200000</v>
       </c>
       <c r="G1080">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1080">
         <v>1</v>
@@ -26833,7 +26833,7 @@
         <v>180000</v>
       </c>
       <c r="G1081">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1081">
         <v>1</v>
@@ -26859,7 +26859,7 @@
         <v>250000</v>
       </c>
       <c r="G1082">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1082">
         <v>1</v>
@@ -26885,7 +26885,7 @@
         <v>550000</v>
       </c>
       <c r="G1083">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1083">
         <v>3</v>
@@ -26911,7 +26911,7 @@
         <v>200000</v>
       </c>
       <c r="G1084">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1084">
         <v>2</v>
@@ -26934,7 +26934,7 @@
         <v>1000000</v>
       </c>
       <c r="G1085">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1085">
         <v>3</v>
@@ -26957,7 +26957,7 @@
         <v>300000</v>
       </c>
       <c r="G1086">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1086">
         <v>2</v>
@@ -26980,7 +26980,7 @@
         <v>750000</v>
       </c>
       <c r="G1087">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1087">
         <v>2</v>
@@ -27006,7 +27006,7 @@
         <v>900000</v>
       </c>
       <c r="G1088">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1088">
         <v>2</v>
@@ -27029,7 +27029,7 @@
         <v>300000</v>
       </c>
       <c r="G1089">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1089">
         <v>2</v>
@@ -27052,7 +27052,7 @@
         <v>450000</v>
       </c>
       <c r="G1090">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1090">
         <v>2</v>
@@ -27078,7 +27078,7 @@
         <v>300000</v>
       </c>
       <c r="G1091">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1091">
         <v>2</v>
@@ -27104,7 +27104,7 @@
         <v>5000000</v>
       </c>
       <c r="G1092">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1092">
         <v>2</v>
@@ -27127,7 +27127,7 @@
         <v>300000</v>
       </c>
       <c r="G1093">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1093">
         <v>2</v>
@@ -27147,7 +27147,7 @@
         <v>0</v>
       </c>
       <c r="G1094">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1094">
         <v>2</v>
@@ -27173,7 +27173,7 @@
         <v>280000</v>
       </c>
       <c r="G1095">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1095">
         <v>2</v>
@@ -27196,7 +27196,7 @@
         <v>450000</v>
       </c>
       <c r="G1096">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1096">
         <v>2</v>
@@ -27222,7 +27222,7 @@
         <v>600000</v>
       </c>
       <c r="G1097">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1097">
         <v>2</v>
@@ -27248,7 +27248,7 @@
         <v>350000</v>
       </c>
       <c r="G1098">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1098">
         <v>2</v>
@@ -27274,7 +27274,7 @@
         <v>120000</v>
       </c>
       <c r="G1099">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1099">
         <v>2</v>
@@ -27294,7 +27294,7 @@
         <v>360000</v>
       </c>
       <c r="G1100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1100">
         <v>3</v>
@@ -27317,7 +27317,7 @@
         <v>0</v>
       </c>
       <c r="G1101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1101">
         <v>1</v>
@@ -27343,7 +27343,7 @@
         <v>600000</v>
       </c>
       <c r="G1102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1102">
         <v>4</v>
@@ -27369,7 +27369,7 @@
         <v>400000</v>
       </c>
       <c r="G1103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1103">
         <v>2</v>
@@ -27389,7 +27389,7 @@
         <v>1</v>
       </c>
       <c r="G1104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1104">
         <v>1</v>
@@ -27412,7 +27412,7 @@
         <v>600000</v>
       </c>
       <c r="G1105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1105">
         <v>2</v>
@@ -27435,7 +27435,7 @@
         <v>180000</v>
       </c>
       <c r="G1106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1106">
         <v>1</v>
@@ -27461,7 +27461,7 @@
         <v>700000</v>
       </c>
       <c r="G1107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1107">
         <v>2</v>
@@ -27484,7 +27484,7 @@
         <v>450000</v>
       </c>
       <c r="G1108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1108">
         <v>4</v>
@@ -27530,7 +27530,7 @@
         <v>500000</v>
       </c>
       <c r="G1110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1110">
         <v>2</v>
@@ -27553,7 +27553,7 @@
         <v>350000</v>
       </c>
       <c r="G1111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1111">
         <v>2</v>
@@ -27579,7 +27579,7 @@
         <v>300000</v>
       </c>
       <c r="G1112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1112">
         <v>2</v>
@@ -27648,7 +27648,7 @@
         <v>1600000</v>
       </c>
       <c r="G1115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1115">
         <v>2</v>
@@ -27674,7 +27674,7 @@
         <v>600000</v>
       </c>
       <c r="G1116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1116">
         <v>2</v>
@@ -27720,7 +27720,7 @@
         <v>1000000</v>
       </c>
       <c r="G1118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1118">
         <v>2</v>
@@ -27806,7 +27806,7 @@
         <v>0</v>
       </c>
       <c r="G1122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1122">
         <v>2</v>
@@ -27826,7 +27826,7 @@
         <v>0</v>
       </c>
       <c r="G1123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1123">
         <v>2</v>
@@ -27846,7 +27846,7 @@
         <v>0</v>
       </c>
       <c r="G1124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1124">
         <v>2</v>
@@ -27961,7 +27961,7 @@
         <v>0</v>
       </c>
       <c r="G1129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1129">
         <v>2</v>
@@ -27987,7 +27987,7 @@
         <v>1250000</v>
       </c>
       <c r="G1130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1130">
         <v>4</v>
@@ -28154,7 +28154,7 @@
         <v>600000</v>
       </c>
       <c r="G1137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1137">
         <v>2</v>
@@ -28174,7 +28174,7 @@
         <v>1</v>
       </c>
       <c r="G1138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1138">
         <v>1</v>
@@ -28263,7 +28263,7 @@
         <v>200000</v>
       </c>
       <c r="G1142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1142">
         <v>2</v>
@@ -28286,7 +28286,7 @@
         <v>300000</v>
       </c>
       <c r="G1143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1143">
         <v>2</v>
@@ -28355,7 +28355,7 @@
         <v>550000</v>
       </c>
       <c r="G1146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1146">
         <v>2</v>
@@ -28407,7 +28407,7 @@
         <v>550000</v>
       </c>
       <c r="G1148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1148">
         <v>2</v>
@@ -28430,7 +28430,7 @@
         <v>5000000</v>
       </c>
       <c r="G1149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1149">
         <v>2</v>
@@ -28453,7 +28453,7 @@
         <v>5000000</v>
       </c>
       <c r="G1150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1150">
         <v>2</v>
@@ -28476,7 +28476,7 @@
         <v>5000000</v>
       </c>
       <c r="G1151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1151">
         <v>2</v>
@@ -28525,7 +28525,7 @@
         <v>5000000</v>
       </c>
       <c r="G1153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1153">
         <v>2</v>
@@ -28577,7 +28577,7 @@
         <v>2000000</v>
       </c>
       <c r="G1155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1155">
         <v>2</v>
@@ -28626,7 +28626,7 @@
         <v>450000</v>
       </c>
       <c r="G1157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1157">
         <v>2</v>
@@ -28689,7 +28689,7 @@
         <v>0</v>
       </c>
       <c r="G1160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1160">
         <v>2</v>
@@ -28905,7 +28905,7 @@
         <v>800000</v>
       </c>
       <c r="G1169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1169">
         <v>4</v>
@@ -29000,7 +29000,7 @@
         <v>0</v>
       </c>
       <c r="G1173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1173">
         <v>2</v>
@@ -29130,7 +29130,7 @@
         <v>450000</v>
       </c>
       <c r="G1178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1178">
         <v>2</v>
@@ -29156,7 +29156,7 @@
         <v>7000000</v>
       </c>
       <c r="G1179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1179">
         <v>2</v>
@@ -29208,7 +29208,7 @@
         <v>600000</v>
       </c>
       <c r="G1181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1181">
         <v>2</v>
@@ -29329,7 +29329,7 @@
         <v>300000</v>
       </c>
       <c r="G1186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1186">
         <v>2</v>
@@ -29407,7 +29407,7 @@
         <v>1200000</v>
       </c>
       <c r="G1189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1189">
         <v>2</v>
@@ -29508,7 +29508,7 @@
         <v>500000</v>
       </c>
       <c r="G1193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1193">
         <v>2</v>
@@ -29649,7 +29649,7 @@
         <v>400000</v>
       </c>
       <c r="G1199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1199">
         <v>2</v>
@@ -29675,7 +29675,7 @@
         <v>120000</v>
       </c>
       <c r="G1200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1200">
         <v>2</v>
@@ -29701,7 +29701,7 @@
         <v>120000</v>
       </c>
       <c r="G1201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1201">
         <v>2</v>
@@ -29747,7 +29747,7 @@
         <v>0</v>
       </c>
       <c r="G1203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1203">
         <v>2</v>
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="G1204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1204">
         <v>2</v>
@@ -29793,7 +29793,7 @@
         <v>130000</v>
       </c>
       <c r="G1205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1205">
         <v>2</v>
@@ -29819,7 +29819,7 @@
         <v>130000</v>
       </c>
       <c r="G1206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1206">
         <v>2</v>
@@ -29845,7 +29845,7 @@
         <v>200000</v>
       </c>
       <c r="G1207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1207">
         <v>2</v>
@@ -29868,7 +29868,7 @@
         <v>150000</v>
       </c>
       <c r="G1208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1208">
         <v>2</v>
@@ -29894,7 +29894,7 @@
         <v>120000</v>
       </c>
       <c r="G1209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1209">
         <v>2</v>
@@ -29946,7 +29946,7 @@
         <v>560000</v>
       </c>
       <c r="G1211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1211">
         <v>2</v>
@@ -30099,7 +30099,7 @@
         <v>350000</v>
       </c>
       <c r="G1217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1217">
         <v>2</v>
@@ -30168,7 +30168,7 @@
         <v>800000</v>
       </c>
       <c r="G1220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1220">
         <v>2</v>
@@ -30194,7 +30194,7 @@
         <v>500000</v>
       </c>
       <c r="G1221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1221">
         <v>2</v>
@@ -30370,7 +30370,7 @@
         <v>400000</v>
       </c>
       <c r="G1228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1228">
         <v>2</v>
@@ -30436,7 +30436,7 @@
         <v>700000</v>
       </c>
       <c r="G1231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1231">
         <v>2</v>
@@ -30459,7 +30459,7 @@
         <v>250000</v>
       </c>
       <c r="G1232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1232">
         <v>1</v>
@@ -30813,7 +30813,7 @@
         <v>1000000</v>
       </c>
       <c r="G1247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1247">
         <v>2</v>
@@ -30839,7 +30839,7 @@
         <v>320000</v>
       </c>
       <c r="G1248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1248">
         <v>2</v>
@@ -30862,7 +30862,7 @@
         <v>420000</v>
       </c>
       <c r="G1249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1249">
         <v>2</v>
@@ -30885,7 +30885,7 @@
         <v>450000</v>
       </c>
       <c r="G1250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1250">
         <v>2</v>
@@ -31055,7 +31055,7 @@
         <v>250000</v>
       </c>
       <c r="G1257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1257">
         <v>2</v>
@@ -31101,7 +31101,7 @@
         <v>400000</v>
       </c>
       <c r="G1259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1259">
         <v>2</v>
@@ -31124,7 +31124,7 @@
         <v>2000000</v>
       </c>
       <c r="G1260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1260">
         <v>2</v>
@@ -31147,7 +31147,7 @@
         <v>450000</v>
       </c>
       <c r="G1261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1261">
         <v>2</v>
@@ -31213,7 +31213,7 @@
         <v>900000</v>
       </c>
       <c r="G1264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1264">
         <v>2</v>
@@ -31259,7 +31259,7 @@
         <v>2</v>
       </c>
       <c r="G1266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1266">
         <v>2</v>
@@ -31308,7 +31308,7 @@
         <v>400000</v>
       </c>
       <c r="G1268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1268">
         <v>2</v>
@@ -31354,7 +31354,7 @@
         <v>0</v>
       </c>
       <c r="G1270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1270">
         <v>2</v>
@@ -31374,7 +31374,7 @@
         <v>0</v>
       </c>
       <c r="G1271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1271">
         <v>2</v>
@@ -31449,7 +31449,7 @@
         <v>400000</v>
       </c>
       <c r="G1274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1274">
         <v>2</v>
@@ -31564,7 +31564,7 @@
         <v>6000000</v>
       </c>
       <c r="G1279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1279">
         <v>2</v>
@@ -31757,7 +31757,7 @@
         <v>5000000</v>
       </c>
       <c r="G1287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1287">
         <v>2</v>
@@ -31780,7 +31780,7 @@
         <v>3000000</v>
       </c>
       <c r="G1288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1288">
         <v>2</v>
@@ -32077,7 +32077,7 @@
         <v>1000000</v>
       </c>
       <c r="G1300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1300">
         <v>2</v>
@@ -32097,7 +32097,7 @@
         <v>50000</v>
       </c>
       <c r="G1301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1301">
         <v>2</v>
@@ -32365,7 +32365,7 @@
         <v>850000</v>
       </c>
       <c r="G1312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1312">
         <v>2</v>
@@ -32561,7 +32561,7 @@
         <v>7000000</v>
       </c>
       <c r="G1320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1320">
         <v>2</v>
@@ -32607,7 +32607,7 @@
         <v>0</v>
       </c>
       <c r="G1322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1322">
         <v>2</v>
@@ -32846,7 +32846,7 @@
         <v>600000</v>
       </c>
       <c r="G1332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1332">
         <v>3</v>
@@ -33016,7 +33016,7 @@
         <v>1000000</v>
       </c>
       <c r="G1339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1339">
         <v>2</v>
@@ -33146,7 +33146,7 @@
         <v>600000</v>
       </c>
       <c r="G1344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1344">
         <v>2</v>
@@ -33169,7 +33169,7 @@
         <v>0</v>
       </c>
       <c r="G1345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1345">
         <v>2</v>
@@ -33195,7 +33195,7 @@
         <v>489000</v>
       </c>
       <c r="G1346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1346">
         <v>2</v>
@@ -33218,7 +33218,7 @@
         <v>0</v>
       </c>
       <c r="G1347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1347">
         <v>1</v>
@@ -33264,7 +33264,7 @@
         <v>480000</v>
       </c>
       <c r="G1349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1349">
         <v>2</v>
@@ -33316,7 +33316,7 @@
         <v>430000</v>
       </c>
       <c r="G1351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1351">
         <v>4</v>
@@ -33339,7 +33339,7 @@
         <v>550000</v>
       </c>
       <c r="G1352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1352">
         <v>2</v>
@@ -33437,7 +33437,7 @@
         <v>550000</v>
       </c>
       <c r="G1356">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1356">
         <v>2</v>
@@ -33486,7 +33486,7 @@
         <v>0</v>
       </c>
       <c r="G1358">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1358">
         <v>2</v>
@@ -33506,7 +33506,7 @@
         <v>1000000</v>
       </c>
       <c r="G1359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1359">
         <v>2</v>
@@ -33552,7 +33552,7 @@
         <v>500000</v>
       </c>
       <c r="G1361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1361">
         <v>4</v>
@@ -33575,7 +33575,7 @@
         <v>450000</v>
       </c>
       <c r="G1362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1362">
         <v>2</v>
@@ -33598,7 +33598,7 @@
         <v>400000</v>
       </c>
       <c r="G1363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1363">
         <v>2</v>
@@ -33644,7 +33644,7 @@
         <v>560000</v>
       </c>
       <c r="G1365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1365">
         <v>4</v>
@@ -33667,7 +33667,7 @@
         <v>700000</v>
       </c>
       <c r="G1366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1366">
         <v>2</v>
@@ -33693,7 +33693,7 @@
         <v>930000</v>
       </c>
       <c r="G1367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1367">
         <v>1</v>
@@ -33713,7 +33713,7 @@
         <v>300000</v>
       </c>
       <c r="G1368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1368">
         <v>2</v>
@@ -33736,7 +33736,7 @@
         <v>700000</v>
       </c>
       <c r="G1369">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1369">
         <v>2</v>
@@ -33776,7 +33776,7 @@
         <v>50000</v>
       </c>
       <c r="G1371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1371">
         <v>2</v>
@@ -33799,7 +33799,7 @@
         <v>450000</v>
       </c>
       <c r="G1372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1372">
         <v>2</v>
@@ -33868,7 +33868,7 @@
         <v>600000</v>
       </c>
       <c r="G1375">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1375">
         <v>2</v>
@@ -33891,7 +33891,7 @@
         <v>400000</v>
       </c>
       <c r="G1376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1376">
         <v>4</v>
@@ -33983,7 +33983,7 @@
         <v>100000</v>
       </c>
       <c r="G1380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1380">
         <v>2</v>
@@ -34228,7 +34228,7 @@
         <v>3</v>
       </c>
       <c r="G1390">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1390">
         <v>2</v>
@@ -34251,7 +34251,7 @@
         <v>5000000</v>
       </c>
       <c r="G1391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1391">
         <v>2</v>
@@ -34274,7 +34274,7 @@
         <v>700000</v>
       </c>
       <c r="G1392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1392">
         <v>2</v>
@@ -34297,7 +34297,7 @@
         <v>500000</v>
       </c>
       <c r="G1393">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1393">
         <v>2</v>
@@ -34340,7 +34340,7 @@
         <v>1000000</v>
       </c>
       <c r="G1395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1395">
         <v>2</v>
@@ -34490,7 +34490,7 @@
         <v>4000000</v>
       </c>
       <c r="G1401">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1401">
         <v>4</v>
@@ -34536,7 +34536,7 @@
         <v>240000</v>
       </c>
       <c r="G1403">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1403">
         <v>2</v>
@@ -34559,7 +34559,7 @@
         <v>1200000</v>
       </c>
       <c r="G1404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1404">
         <v>2</v>
@@ -34784,7 +34784,7 @@
         <v>5000000</v>
       </c>
       <c r="G1413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1413">
         <v>2</v>
@@ -34885,7 +34885,7 @@
         <v>600000</v>
       </c>
       <c r="G1417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1417">
         <v>2</v>
@@ -34980,7 +34980,7 @@
         <v>450000</v>
       </c>
       <c r="G1421">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1421">
         <v>2</v>
@@ -35095,7 +35095,7 @@
         <v>900000</v>
       </c>
       <c r="G1426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1426">
         <v>2</v>
@@ -35147,7 +35147,7 @@
         <v>250000</v>
       </c>
       <c r="G1428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1428">
         <v>2</v>
@@ -35239,7 +35239,7 @@
         <v>500000</v>
       </c>
       <c r="G1432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1432">
         <v>2</v>
@@ -35291,7 +35291,7 @@
         <v>1200000</v>
       </c>
       <c r="G1434">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1434">
         <v>2</v>
@@ -35340,7 +35340,7 @@
         <v>200000</v>
       </c>
       <c r="G1436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1436">
         <v>1</v>
@@ -35366,7 +35366,7 @@
         <v>400000</v>
       </c>
       <c r="G1437">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1437">
         <v>3</v>
@@ -35412,7 +35412,7 @@
         <v>352019</v>
       </c>
       <c r="G1439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1439">
         <v>1</v>
@@ -35438,7 +35438,7 @@
         <v>650000</v>
       </c>
       <c r="G1440">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1440">
         <v>2</v>
@@ -35461,7 +35461,7 @@
         <v>720000</v>
       </c>
       <c r="G1441">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1441">
         <v>4</v>
@@ -35513,7 +35513,7 @@
         <v>300000</v>
       </c>
       <c r="G1443">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1443">
         <v>2</v>
@@ -35536,7 +35536,7 @@
         <v>600000</v>
       </c>
       <c r="G1444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1444">
         <v>2</v>
@@ -35559,7 +35559,7 @@
         <v>900000</v>
       </c>
       <c r="G1445">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1445">
         <v>3</v>
@@ -35582,7 +35582,7 @@
         <v>700000</v>
       </c>
       <c r="G1446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1446">
         <v>3</v>
@@ -35605,7 +35605,7 @@
         <v>1000000</v>
       </c>
       <c r="G1447">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1447">
         <v>2</v>
@@ -35628,7 +35628,7 @@
         <v>420000</v>
       </c>
       <c r="G1448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1448">
         <v>2</v>
@@ -35651,7 +35651,7 @@
         <v>500000</v>
       </c>
       <c r="G1449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1449">
         <v>2</v>
@@ -35763,7 +35763,7 @@
         <v>240000</v>
       </c>
       <c r="G1454">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1454">
         <v>2</v>
@@ -35809,7 +35809,7 @@
         <v>1100000</v>
       </c>
       <c r="G1456">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1456">
         <v>2</v>
@@ -35835,7 +35835,7 @@
         <v>900000</v>
       </c>
       <c r="G1457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1457">
         <v>2</v>
@@ -35861,7 +35861,7 @@
         <v>480000</v>
       </c>
       <c r="G1458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1458">
         <v>2</v>
@@ -35907,7 +35907,7 @@
         <v>600000</v>
       </c>
       <c r="G1460">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1460">
         <v>2</v>
@@ -35950,7 +35950,7 @@
         <v>200000</v>
       </c>
       <c r="G1462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1462">
         <v>2</v>
@@ -35976,7 +35976,7 @@
         <v>280000</v>
       </c>
       <c r="G1463">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1463">
         <v>2</v>
@@ -36022,7 +36022,7 @@
         <v>420000</v>
       </c>
       <c r="G1465">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1465">
         <v>2</v>
@@ -36045,7 +36045,7 @@
         <v>450000</v>
       </c>
       <c r="G1466">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1466">
         <v>3</v>
@@ -36068,7 +36068,7 @@
         <v>450000</v>
       </c>
       <c r="G1467">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1467">
         <v>2</v>
@@ -36091,7 +36091,7 @@
         <v>500000</v>
       </c>
       <c r="G1468">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1468">
         <v>2</v>
@@ -36163,7 +36163,7 @@
         <v>600000</v>
       </c>
       <c r="G1471">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1471">
         <v>2</v>
@@ -36189,7 +36189,7 @@
         <v>300000</v>
       </c>
       <c r="G1472">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1472">
         <v>2</v>
@@ -36212,7 +36212,7 @@
         <v>480000</v>
       </c>
       <c r="G1473">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1473">
         <v>2</v>
@@ -36255,7 +36255,7 @@
         <v>700000</v>
       </c>
       <c r="G1475">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1475">
         <v>2</v>
@@ -36278,7 +36278,7 @@
         <v>500000</v>
       </c>
       <c r="G1476">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1476">
         <v>2</v>
@@ -36301,7 +36301,7 @@
         <v>1000000</v>
       </c>
       <c r="G1477">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1477">
         <v>2</v>
@@ -36324,7 +36324,7 @@
         <v>0</v>
       </c>
       <c r="G1478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1478">
         <v>4</v>
@@ -36419,7 +36419,7 @@
         <v>0</v>
       </c>
       <c r="G1482">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1482">
         <v>2</v>
@@ -36557,7 +36557,7 @@
         <v>600000</v>
       </c>
       <c r="G1488">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1488">
         <v>2</v>
@@ -36580,7 +36580,7 @@
         <v>3</v>
       </c>
       <c r="G1489">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1489">
         <v>2</v>
@@ -36603,7 +36603,7 @@
         <v>1400000</v>
       </c>
       <c r="G1490">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1490">
         <v>3</v>
@@ -36738,7 +36738,7 @@
         <v>600000</v>
       </c>
       <c r="G1496">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1496">
         <v>2</v>
@@ -36761,7 +36761,7 @@
         <v>800000</v>
       </c>
       <c r="G1497">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1497">
         <v>2</v>
@@ -36784,7 +36784,7 @@
         <v>600000</v>
       </c>
       <c r="G1498">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1498">
         <v>2</v>
@@ -36807,7 +36807,7 @@
         <v>510000</v>
       </c>
       <c r="G1499">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1499">
         <v>2</v>
@@ -36844,7 +36844,7 @@
         <v>480000</v>
       </c>
       <c r="G1501">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1501">
         <v>2</v>
@@ -36867,7 +36867,7 @@
         <v>800000</v>
       </c>
       <c r="G1502">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1502">
         <v>3</v>
@@ -36959,7 +36959,7 @@
         <v>750000</v>
       </c>
       <c r="G1506">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1506">
         <v>3</v>
@@ -36976,7 +36976,7 @@
         <v>0</v>
       </c>
       <c r="G1507">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1507">
         <v>2</v>
@@ -37002,7 +37002,7 @@
         <v>550000</v>
       </c>
       <c r="G1508">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1508">
         <v>2</v>
@@ -37028,7 +37028,7 @@
         <v>800000</v>
       </c>
       <c r="G1509">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1509">
         <v>2</v>
@@ -37290,7 +37290,7 @@
         <v>350000</v>
       </c>
       <c r="G1520">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1520">
         <v>2</v>
@@ -37365,7 +37365,7 @@
         <v>500000</v>
       </c>
       <c r="G1523">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1523">
         <v>2</v>
@@ -37437,7 +37437,7 @@
         <v>2000000</v>
       </c>
       <c r="G1526">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1526">
         <v>2</v>
@@ -37480,7 +37480,7 @@
         <v>300000</v>
       </c>
       <c r="G1528">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1528">
         <v>2</v>
@@ -37581,7 +37581,7 @@
         <v>550000</v>
       </c>
       <c r="G1532">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1532">
         <v>2</v>
@@ -37627,7 +37627,7 @@
         <v>180000</v>
       </c>
       <c r="G1534">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1534">
         <v>2</v>
@@ -37673,7 +37673,7 @@
         <v>750000</v>
       </c>
       <c r="G1536">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1536">
         <v>2</v>
@@ -37696,7 +37696,7 @@
         <v>400000</v>
       </c>
       <c r="G1537">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1537">
         <v>2</v>
@@ -37745,7 +37745,7 @@
         <v>500000</v>
       </c>
       <c r="G1539">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1539">
         <v>2</v>
@@ -37768,7 +37768,7 @@
         <v>900000</v>
       </c>
       <c r="G1540">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1540">
         <v>2</v>
@@ -37788,7 +37788,7 @@
         <v>0</v>
       </c>
       <c r="G1541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1541">
         <v>2</v>
@@ -37811,7 +37811,7 @@
         <v>800000</v>
       </c>
       <c r="G1542">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1542">
         <v>2</v>
@@ -37834,7 +37834,7 @@
         <v>540000</v>
       </c>
       <c r="G1543">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1543">
         <v>2</v>
@@ -37857,7 +37857,7 @@
         <v>700000</v>
       </c>
       <c r="G1544">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1544">
         <v>2</v>
@@ -37880,7 +37880,7 @@
         <v>700000</v>
       </c>
       <c r="G1545">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1545">
         <v>2</v>
@@ -37903,7 +37903,7 @@
         <v>910000</v>
       </c>
       <c r="G1546">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1546">
         <v>2</v>
@@ -37952,7 +37952,7 @@
         <v>400000</v>
       </c>
       <c r="G1548">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1548">
         <v>2</v>
@@ -37978,7 +37978,7 @@
         <v>120000</v>
       </c>
       <c r="G1549">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1549">
         <v>2</v>
@@ -38056,7 +38056,7 @@
         <v>1000000</v>
       </c>
       <c r="G1552">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1552">
         <v>2</v>
@@ -38131,7 +38131,7 @@
         <v>2000000</v>
       </c>
       <c r="G1555">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1555">
         <v>2</v>
@@ -38168,7 +38168,7 @@
         <v>300000</v>
       </c>
       <c r="G1557">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1557">
         <v>2</v>
@@ -38243,7 +38243,7 @@
         <v>500000</v>
       </c>
       <c r="G1560">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1560">
         <v>3</v>
@@ -38292,7 +38292,7 @@
         <v>850000</v>
       </c>
       <c r="G1562">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1562">
         <v>2</v>
@@ -38367,7 +38367,7 @@
         <v>350000</v>
       </c>
       <c r="G1565">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1565">
         <v>2</v>
@@ -38393,7 +38393,7 @@
         <v>150000</v>
       </c>
       <c r="G1566">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1566">
         <v>2</v>
@@ -38583,7 +38583,7 @@
         <v>750000</v>
       </c>
       <c r="G1574">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1574">
         <v>3</v>
@@ -38802,7 +38802,7 @@
         <v>500000</v>
       </c>
       <c r="G1583">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1583">
         <v>2</v>
@@ -39024,7 +39024,7 @@
         <v>3</v>
       </c>
       <c r="G1592">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1592">
         <v>2</v>
@@ -39047,7 +39047,7 @@
         <v>0</v>
       </c>
       <c r="G1593">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1593">
         <v>2</v>
@@ -39139,7 +39139,7 @@
         <v>0</v>
       </c>
       <c r="G1597">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1597">
         <v>2</v>
@@ -39162,7 +39162,7 @@
         <v>1000000</v>
       </c>
       <c r="G1598">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1598">
         <v>2</v>
@@ -39211,7 +39211,7 @@
         <v>800000</v>
       </c>
       <c r="G1600">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1600">
         <v>2</v>
@@ -39424,7 +39424,7 @@
         <v>50000</v>
       </c>
       <c r="G1609">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1609">
         <v>1</v>
@@ -39447,7 +39447,7 @@
         <v>730000</v>
       </c>
       <c r="G1610">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1610">
         <v>2</v>
@@ -39470,7 +39470,7 @@
         <v>400000</v>
       </c>
       <c r="G1611">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1611">
         <v>2</v>
@@ -39516,7 +39516,7 @@
         <v>500000</v>
       </c>
       <c r="G1613">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1613">
         <v>2</v>
@@ -39640,7 +39640,7 @@
         <v>400000</v>
       </c>
       <c r="G1618">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1618">
         <v>2</v>
@@ -39663,7 +39663,7 @@
         <v>480000</v>
       </c>
       <c r="G1619">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1619">
         <v>3</v>
@@ -39689,7 +39689,7 @@
         <v>530000</v>
       </c>
       <c r="G1620">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1620">
         <v>2</v>
@@ -39775,7 +39775,7 @@
         <v>0</v>
       </c>
       <c r="G1624">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1624">
         <v>2</v>
@@ -39847,7 +39847,7 @@
         <v>80000</v>
       </c>
       <c r="G1627">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1627">
         <v>2</v>
@@ -39959,7 +39959,7 @@
         <v>1</v>
       </c>
       <c r="G1632">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1632">
         <v>1</v>
@@ -40048,7 +40048,7 @@
         <v>0</v>
       </c>
       <c r="G1636">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1636">
         <v>2</v>
@@ -40380,7 +40380,7 @@
         <v>400000</v>
       </c>
       <c r="G1649">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1649">
         <v>2</v>
@@ -40660,7 +40660,7 @@
         <v>700000</v>
       </c>
       <c r="G1660">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1660">
         <v>2</v>
@@ -40686,7 +40686,7 @@
         <v>350000</v>
       </c>
       <c r="G1661">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1661">
         <v>3</v>
@@ -40709,7 +40709,7 @@
         <v>0</v>
       </c>
       <c r="G1662">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1662">
         <v>4</v>
@@ -40735,7 +40735,7 @@
         <v>400000</v>
       </c>
       <c r="G1663">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1663">
         <v>2</v>
@@ -40784,7 +40784,7 @@
         <v>600000</v>
       </c>
       <c r="G1665">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1665">
         <v>3</v>
@@ -40836,7 +40836,7 @@
         <v>1000000</v>
       </c>
       <c r="G1667">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1667">
         <v>2</v>
@@ -40888,7 +40888,7 @@
         <v>420000</v>
       </c>
       <c r="G1669">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1669">
         <v>2</v>
@@ -40914,7 +40914,7 @@
         <v>400000</v>
       </c>
       <c r="G1670">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1670">
         <v>2</v>
@@ -40940,7 +40940,7 @@
         <v>490000</v>
       </c>
       <c r="G1671">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1671">
         <v>2</v>
@@ -41038,7 +41038,7 @@
         <v>400000</v>
       </c>
       <c r="G1675">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1675">
         <v>2</v>
@@ -41061,7 +41061,7 @@
         <v>0</v>
       </c>
       <c r="G1676">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1676">
         <v>2</v>
@@ -41139,7 +41139,7 @@
         <v>630000</v>
       </c>
       <c r="G1679">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1679">
         <v>2</v>
@@ -41165,7 +41165,7 @@
         <v>350000</v>
       </c>
       <c r="G1680">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1680">
         <v>2</v>
@@ -41191,7 +41191,7 @@
         <v>220000</v>
       </c>
       <c r="G1681">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1681">
         <v>1</v>
@@ -41217,7 +41217,7 @@
         <v>90000</v>
       </c>
       <c r="G1682">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1682">
         <v>1</v>
@@ -41240,7 +41240,7 @@
         <v>500000</v>
       </c>
       <c r="G1683">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1683">
         <v>2</v>
@@ -41263,7 +41263,7 @@
         <v>500000</v>
       </c>
       <c r="G1684">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1684">
         <v>2</v>
@@ -41341,7 +41341,7 @@
         <v>200000</v>
       </c>
       <c r="G1687">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1687">
         <v>2</v>
@@ -41514,7 +41514,7 @@
         <v>1</v>
       </c>
       <c r="G1694">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1694">
         <v>1</v>
@@ -41811,7 +41811,7 @@
         <v>500000</v>
       </c>
       <c r="G1706">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1706">
         <v>2</v>
@@ -41929,7 +41929,7 @@
         <v>0</v>
       </c>
       <c r="G1711">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1711">
         <v>2</v>
@@ -42076,7 +42076,7 @@
         <v>540000</v>
       </c>
       <c r="G1717">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1717">
         <v>2</v>
@@ -42099,7 +42099,7 @@
         <v>400000</v>
       </c>
       <c r="G1718">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1718">
         <v>1</v>
@@ -42266,7 +42266,7 @@
         <v>1500000</v>
       </c>
       <c r="G1725">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1725">
         <v>2</v>
@@ -42370,7 +42370,7 @@
         <v>360000</v>
       </c>
       <c r="G1729">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1729">
         <v>2</v>
@@ -42754,7 +42754,7 @@
         <v>400000</v>
       </c>
       <c r="G1744">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1744">
         <v>3</v>
@@ -42921,7 +42921,7 @@
         <v>450000</v>
       </c>
       <c r="G1751">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1751">
         <v>3</v>
@@ -42947,7 +42947,7 @@
         <v>750000</v>
       </c>
       <c r="G1752">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1752">
         <v>2</v>
@@ -43175,7 +43175,7 @@
         <v>0</v>
       </c>
       <c r="G1761">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1761">
         <v>2</v>
@@ -43273,7 +43273,7 @@
         <v>1000000</v>
       </c>
       <c r="G1765">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1765">
         <v>2</v>
@@ -43325,7 +43325,7 @@
         <v>310000</v>
       </c>
       <c r="G1767">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1767">
         <v>1</v>
@@ -43351,7 +43351,7 @@
         <v>1000000</v>
       </c>
       <c r="G1768">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1768">
         <v>4</v>
@@ -43400,7 +43400,7 @@
         <v>350000</v>
       </c>
       <c r="G1770">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1770">
         <v>2</v>
@@ -43599,7 +43599,7 @@
         <v>600000</v>
       </c>
       <c r="G1778">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1778">
         <v>3</v>
@@ -43625,7 +43625,7 @@
         <v>300000</v>
       </c>
       <c r="G1779">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1779">
         <v>2</v>
@@ -43648,7 +43648,7 @@
         <v>420000</v>
       </c>
       <c r="G1780">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1780">
         <v>2</v>
@@ -43726,7 +43726,7 @@
         <v>480000</v>
       </c>
       <c r="G1783">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1783">
         <v>2</v>
@@ -43821,7 +43821,7 @@
         <v>200000</v>
       </c>
       <c r="G1787">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1787">
         <v>2</v>
@@ -43844,7 +43844,7 @@
         <v>1000000</v>
       </c>
       <c r="G1788">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1788">
         <v>2</v>
@@ -44020,7 +44020,7 @@
         <v>400000</v>
       </c>
       <c r="G1795">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1795">
         <v>2</v>
@@ -44043,7 +44043,7 @@
         <v>150000</v>
       </c>
       <c r="G1796">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1796">
         <v>1</v>
@@ -44063,7 +44063,7 @@
         <v>220000</v>
       </c>
       <c r="G1797">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1797">
         <v>1</v>
@@ -44086,7 +44086,7 @@
         <v>300000</v>
       </c>
       <c r="G1798">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1798">
         <v>1</v>
@@ -44112,7 +44112,7 @@
         <v>500000</v>
       </c>
       <c r="G1799">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1799">
         <v>1</v>
@@ -44135,7 +44135,7 @@
         <v>600000</v>
       </c>
       <c r="G1800">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1800">
         <v>2</v>
@@ -44161,7 +44161,7 @@
         <v>400000</v>
       </c>
       <c r="G1801">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1801">
         <v>2</v>
@@ -44187,7 +44187,7 @@
         <v>400000</v>
       </c>
       <c r="G1802">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1802">
         <v>2</v>
@@ -44213,7 +44213,7 @@
         <v>360000</v>
       </c>
       <c r="G1803">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1803">
         <v>2</v>
@@ -44236,7 +44236,7 @@
         <v>0</v>
       </c>
       <c r="G1804">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1804">
         <v>1</v>
@@ -44282,7 +44282,7 @@
         <v>0</v>
       </c>
       <c r="G1806">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1806">
         <v>2</v>
@@ -44308,7 +44308,7 @@
         <v>400000</v>
       </c>
       <c r="G1807">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1807">
         <v>2</v>
@@ -44328,7 +44328,7 @@
         <v>1000000</v>
       </c>
       <c r="G1808">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1808">
         <v>2</v>
@@ -44354,7 +44354,7 @@
         <v>600000</v>
       </c>
       <c r="G1809">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1809">
         <v>3</v>
@@ -44380,7 +44380,7 @@
         <v>431000</v>
       </c>
       <c r="G1810">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1810">
         <v>2</v>
@@ -44449,7 +44449,7 @@
         <v>80000</v>
       </c>
       <c r="G1813">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1813">
         <v>2</v>
@@ -44570,7 +44570,7 @@
         <v>800000</v>
       </c>
       <c r="G1818">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1818">
         <v>2</v>
@@ -44645,7 +44645,7 @@
         <v>600000</v>
       </c>
       <c r="G1821">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1821">
         <v>2</v>
@@ -44671,7 +44671,7 @@
         <v>600000</v>
       </c>
       <c r="G1822">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1822">
         <v>2</v>
@@ -44720,7 +44720,7 @@
         <v>500000</v>
       </c>
       <c r="G1824">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1824">
         <v>2</v>
@@ -44763,7 +44763,7 @@
         <v>420000</v>
       </c>
       <c r="G1826">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1826">
         <v>2</v>
@@ -44786,7 +44786,7 @@
         <v>0</v>
       </c>
       <c r="G1827">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1827">
         <v>1</v>
@@ -44858,7 +44858,7 @@
         <v>600000</v>
       </c>
       <c r="G1830">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1830">
         <v>2</v>
@@ -44927,7 +44927,7 @@
         <v>460000</v>
       </c>
       <c r="G1833">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1833">
         <v>2</v>
@@ -45080,7 +45080,7 @@
         <v>400000</v>
       </c>
       <c r="G1839">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1839">
         <v>2</v>
@@ -45175,7 +45175,7 @@
         <v>400000</v>
       </c>
       <c r="G1843">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1843">
         <v>2</v>
@@ -45201,7 +45201,7 @@
         <v>300000</v>
       </c>
       <c r="G1844">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1844">
         <v>2</v>
@@ -45253,7 +45253,7 @@
         <v>400000</v>
       </c>
       <c r="G1846">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1846">
         <v>2</v>
@@ -45279,7 +45279,7 @@
         <v>500000</v>
       </c>
       <c r="G1847">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1847">
         <v>2</v>
@@ -45518,7 +45518,7 @@
         <v>360000</v>
       </c>
       <c r="G1857">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1857">
         <v>2</v>
@@ -45544,7 +45544,7 @@
         <v>300000</v>
       </c>
       <c r="G1858">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1858">
         <v>2</v>
@@ -45642,7 +45642,7 @@
         <v>150000</v>
       </c>
       <c r="G1862">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1862">
         <v>2</v>
@@ -45659,7 +45659,7 @@
         <v>0</v>
       </c>
       <c r="G1863">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1863">
         <v>1</v>
@@ -45702,7 +45702,7 @@
         <v>360000</v>
       </c>
       <c r="G1865">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1865">
         <v>2</v>
@@ -45719,7 +45719,7 @@
         <v>30000</v>
       </c>
       <c r="G1866">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1866">
         <v>2</v>
@@ -45739,7 +45739,7 @@
         <v>400000</v>
       </c>
       <c r="G1867">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1867">
         <v>3</v>
@@ -45759,7 +45759,7 @@
         <v>0</v>
       </c>
       <c r="G1868">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1868">
         <v>2</v>
@@ -45779,7 +45779,7 @@
         <v>0</v>
       </c>
       <c r="G1869">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1869">
         <v>2</v>
@@ -45799,7 +45799,7 @@
         <v>3</v>
       </c>
       <c r="G1870">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1870">
         <v>2</v>
@@ -45865,7 +45865,7 @@
         <v>0</v>
       </c>
       <c r="G1873">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1873">
         <v>1</v>
@@ -45931,7 +45931,7 @@
         <v>200000</v>
       </c>
       <c r="G1876">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1876">
         <v>1</v>
@@ -45951,7 +45951,7 @@
         <v>0</v>
       </c>
       <c r="G1877">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1877">
         <v>2</v>
@@ -45977,7 +45977,7 @@
         <v>500000</v>
       </c>
       <c r="G1878">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1878">
         <v>3</v>
@@ -46003,7 +46003,7 @@
         <v>330000</v>
       </c>
       <c r="G1879">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1879">
         <v>1</v>
@@ -46023,7 +46023,7 @@
         <v>0</v>
       </c>
       <c r="G1880">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1880">
         <v>3</v>
@@ -46049,7 +46049,7 @@
         <v>100000</v>
       </c>
       <c r="G1881">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1881">
         <v>2</v>
@@ -46072,7 +46072,7 @@
         <v>270000</v>
       </c>
       <c r="G1882">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1882">
         <v>4</v>
@@ -46138,7 +46138,7 @@
         <v>450000</v>
       </c>
       <c r="G1885">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1885">
         <v>2</v>
@@ -46164,7 +46164,7 @@
         <v>700000</v>
       </c>
       <c r="G1886">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1886">
         <v>2</v>
@@ -46184,7 +46184,7 @@
         <v>0</v>
       </c>
       <c r="G1887">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1887">
         <v>2</v>
@@ -46210,7 +46210,7 @@
         <v>300000</v>
       </c>
       <c r="G1888">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1888">
         <v>2</v>
@@ -46230,7 +46230,7 @@
         <v>60000</v>
       </c>
       <c r="G1889">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1889">
         <v>2</v>
@@ -46256,7 +46256,7 @@
         <v>400000</v>
       </c>
       <c r="G1890">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1890">
         <v>2</v>
@@ -46276,7 +46276,7 @@
         <v>600000</v>
       </c>
       <c r="G1891">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1891">
         <v>1</v>
@@ -46322,7 +46322,7 @@
         <v>700000</v>
       </c>
       <c r="G1893">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1893">
         <v>2</v>
@@ -46339,7 +46339,7 @@
         <v>20000</v>
       </c>
       <c r="G1894">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1894">
         <v>1</v>
@@ -46362,7 +46362,7 @@
         <v>330000</v>
       </c>
       <c r="G1895">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1895">
         <v>2</v>
@@ -46379,7 +46379,7 @@
         <v>20000</v>
       </c>
       <c r="G1896">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1896">
         <v>1</v>
@@ -46399,7 +46399,7 @@
         <v>550000</v>
       </c>
       <c r="G1897">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1897">
         <v>2</v>
@@ -46422,7 +46422,7 @@
         <v>0</v>
       </c>
       <c r="G1898">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1898">
         <v>2</v>
@@ -46442,7 +46442,7 @@
         <v>1</v>
       </c>
       <c r="G1899">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1899">
         <v>2</v>
@@ -46465,7 +46465,7 @@
         <v>0</v>
       </c>
       <c r="G1900">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1900">
         <v>2</v>
@@ -46511,7 +46511,7 @@
         <v>120000</v>
       </c>
       <c r="G1902">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1902">
         <v>1</v>
@@ -46534,7 +46534,7 @@
         <v>3</v>
       </c>
       <c r="G1903">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1903">
         <v>2</v>
@@ -46557,7 +46557,7 @@
         <v>1</v>
       </c>
       <c r="G1904">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1904">
         <v>2</v>
@@ -46580,7 +46580,7 @@
         <v>0</v>
       </c>
       <c r="G1905">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1905">
         <v>2</v>
@@ -46603,7 +46603,7 @@
         <v>0</v>
       </c>
       <c r="G1906">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1906">
         <v>2</v>
@@ -46626,7 +46626,7 @@
         <v>120000</v>
       </c>
       <c r="G1907">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1907">
         <v>1</v>
@@ -46649,7 +46649,7 @@
         <v>700000</v>
       </c>
       <c r="G1908">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1908">
         <v>2</v>
@@ -46672,7 +46672,7 @@
         <v>310000</v>
       </c>
       <c r="G1909">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1909">
         <v>2</v>
@@ -46695,7 +46695,7 @@
         <v>312000</v>
       </c>
       <c r="G1910">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1910">
         <v>1</v>
@@ -46718,7 +46718,7 @@
         <v>30000</v>
       </c>
       <c r="G1911">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1911">
         <v>1</v>
@@ -46741,7 +46741,7 @@
         <v>300000</v>
       </c>
       <c r="G1912">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1912">
         <v>2</v>
@@ -46764,7 +46764,7 @@
         <v>280000</v>
       </c>
       <c r="G1913">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1913">
         <v>2</v>
@@ -46787,7 +46787,7 @@
         <v>400000</v>
       </c>
       <c r="G1914">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1914">
         <v>1</v>
@@ -46830,7 +46830,7 @@
         <v>0</v>
       </c>
       <c r="G1916">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1916">
         <v>1</v>
@@ -46853,7 +46853,7 @@
         <v>330000</v>
       </c>
       <c r="G1917">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1917">
         <v>2</v>
@@ -46879,7 +46879,7 @@
         <v>264000</v>
       </c>
       <c r="G1918">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1918">
         <v>2</v>
@@ -46902,7 +46902,7 @@
         <v>500000</v>
       </c>
       <c r="G1919">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1919">
         <v>2</v>
@@ -46925,7 +46925,7 @@
         <v>850000</v>
       </c>
       <c r="G1920">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1920">
         <v>2</v>
@@ -46968,7 +46968,7 @@
         <v>350000</v>
       </c>
       <c r="G1922">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1922">
         <v>2</v>
@@ -46988,7 +46988,7 @@
         <v>700000</v>
       </c>
       <c r="G1923">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1923">
         <v>2</v>
@@ -47008,7 +47008,7 @@
         <v>2000000</v>
       </c>
       <c r="G1924">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1924">
         <v>2</v>
@@ -47054,7 +47054,7 @@
         <v>850000</v>
       </c>
       <c r="G1926">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1926">
         <v>2</v>
@@ -47077,7 +47077,7 @@
         <v>60000</v>
       </c>
       <c r="G1927">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1927">
         <v>2</v>
@@ -47097,7 +47097,7 @@
         <v>0</v>
       </c>
       <c r="G1928">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1928">
         <v>3</v>
@@ -47114,7 +47114,7 @@
         <v>400000</v>
       </c>
       <c r="G1929">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1929">
         <v>3</v>
@@ -47157,7 +47157,7 @@
         <v>0</v>
       </c>
       <c r="G1931">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1931">
         <v>2</v>
@@ -47180,7 +47180,7 @@
         <v>400000</v>
       </c>
       <c r="G1932">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1932">
         <v>2</v>
@@ -47220,7 +47220,7 @@
         <v>250000</v>
       </c>
       <c r="G1934">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1934">
         <v>2</v>
@@ -47243,7 +47243,7 @@
         <v>0</v>
       </c>
       <c r="G1935">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1935">
         <v>2</v>
@@ -47266,7 +47266,7 @@
         <v>0</v>
       </c>
       <c r="G1936">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1936">
         <v>2</v>
@@ -47309,7 +47309,7 @@
         <v>0</v>
       </c>
       <c r="G1938">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1938">
         <v>2</v>
@@ -47332,7 +47332,7 @@
         <v>0</v>
       </c>
       <c r="G1939">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1939">
         <v>2</v>
@@ -47355,7 +47355,7 @@
         <v>0</v>
       </c>
       <c r="G1940">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1940">
         <v>2</v>
@@ -47398,7 +47398,7 @@
         <v>1000000</v>
       </c>
       <c r="G1942">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1942">
         <v>2</v>
@@ -47421,7 +47421,7 @@
         <v>720000</v>
       </c>
       <c r="G1943">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1943">
         <v>2</v>
@@ -47441,7 +47441,7 @@
         <v>0</v>
       </c>
       <c r="G1944">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1944">
         <v>2</v>
@@ -47464,7 +47464,7 @@
         <v>300000</v>
       </c>
       <c r="G1945">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1945">
         <v>1</v>
@@ -47487,7 +47487,7 @@
         <v>0</v>
       </c>
       <c r="G1946">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1946">
         <v>2</v>
@@ -47556,7 +47556,7 @@
         <v>0</v>
       </c>
       <c r="G1949">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1949">
         <v>2</v>
@@ -47576,7 +47576,7 @@
         <v>1</v>
       </c>
       <c r="G1950">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1950">
         <v>1</v>
@@ -47596,7 +47596,7 @@
         <v>2</v>
       </c>
       <c r="G1951">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1951">
         <v>2</v>
@@ -47668,7 +47668,7 @@
         <v>500000</v>
       </c>
       <c r="G1954">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1954">
         <v>2</v>
@@ -47688,7 +47688,7 @@
         <v>0</v>
       </c>
       <c r="G1955">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1955">
         <v>2</v>
@@ -47774,7 +47774,7 @@
         <v>250000</v>
       </c>
       <c r="G1959">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1959">
         <v>2</v>
@@ -47834,7 +47834,7 @@
         <v>0</v>
       </c>
       <c r="G1962">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1962">
         <v>1</v>
@@ -47871,7 +47871,7 @@
         <v>150000</v>
       </c>
       <c r="G1964">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1964">
         <v>2</v>
@@ -47891,7 +47891,7 @@
         <v>1</v>
       </c>
       <c r="G1965">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1965">
         <v>2</v>
@@ -47957,7 +47957,7 @@
         <v>1000000</v>
       </c>
       <c r="G1968">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1968">
         <v>2</v>
@@ -47974,7 +47974,7 @@
         <v>0</v>
       </c>
       <c r="G1969">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1969">
         <v>1</v>
@@ -48014,7 +48014,7 @@
         <v>0</v>
       </c>
       <c r="G1971">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1971">
         <v>1</v>
@@ -48054,7 +48054,7 @@
         <v>0</v>
       </c>
       <c r="G1973">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1973">
         <v>2</v>
@@ -48074,7 +48074,7 @@
         <v>1</v>
       </c>
       <c r="G1974">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1974">
         <v>1</v>
@@ -48114,7 +48114,7 @@
         <v>0</v>
       </c>
       <c r="G1976">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1976">
         <v>2</v>
@@ -48134,7 +48134,7 @@
         <v>300000</v>
       </c>
       <c r="G1977">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1977">
         <v>2</v>
@@ -48157,7 +48157,7 @@
         <v>3</v>
       </c>
       <c r="G1978">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1978">
         <v>2</v>
@@ -48200,7 +48200,7 @@
         <v>0</v>
       </c>
       <c r="G1980">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1980">
         <v>2</v>
@@ -48223,7 +48223,7 @@
         <v>0</v>
       </c>
       <c r="G1981">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1981">
         <v>2</v>
@@ -48246,7 +48246,7 @@
         <v>100000</v>
       </c>
       <c r="G1982">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1982">
         <v>2</v>
@@ -48272,7 +48272,7 @@
         <v>300000</v>
       </c>
       <c r="G1983">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1983">
         <v>2</v>
@@ -48298,7 +48298,7 @@
         <v>420000</v>
       </c>
       <c r="G1984">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1984">
         <v>2</v>
@@ -48321,7 +48321,7 @@
         <v>200000</v>
       </c>
       <c r="G1985">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1985">
         <v>1</v>
@@ -48338,7 +48338,7 @@
         <v>20000</v>
       </c>
       <c r="G1986">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1986">
         <v>1</v>
@@ -48361,7 +48361,7 @@
         <v>1</v>
       </c>
       <c r="G1987">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1987">
         <v>2</v>
@@ -48381,7 +48381,7 @@
         <v>400000</v>
       </c>
       <c r="G1988">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1988">
         <v>2</v>
@@ -48404,7 +48404,7 @@
         <v>360000</v>
       </c>
       <c r="G1989">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1989">
         <v>2</v>
@@ -48424,7 +48424,7 @@
         <v>320000</v>
       </c>
       <c r="G1990">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1990">
         <v>1</v>
@@ -48467,7 +48467,7 @@
         <v>150000</v>
       </c>
       <c r="G1992">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1992">
         <v>2</v>
@@ -48490,7 +48490,7 @@
         <v>100000</v>
       </c>
       <c r="G1993">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1993">
         <v>2</v>
@@ -48513,7 +48513,7 @@
         <v>0</v>
       </c>
       <c r="G1994">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1994">
         <v>2</v>
@@ -48533,7 +48533,7 @@
         <v>250000</v>
       </c>
       <c r="G1995">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1995">
         <v>1</v>
@@ -48556,7 +48556,7 @@
         <v>0</v>
       </c>
       <c r="G1996">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1996">
         <v>2</v>
@@ -48602,7 +48602,7 @@
         <v>0</v>
       </c>
       <c r="G1998">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1998">
         <v>2</v>
@@ -48625,7 +48625,7 @@
         <v>1</v>
       </c>
       <c r="G1999">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1999">
         <v>2</v>
@@ -48671,7 +48671,7 @@
         <v>3</v>
       </c>
       <c r="G2001">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2001">
         <v>2</v>
@@ -48717,7 +48717,7 @@
         <v>3</v>
       </c>
       <c r="G2003">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2003">
         <v>2</v>
@@ -48740,7 +48740,7 @@
         <v>3</v>
       </c>
       <c r="G2004">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2004">
         <v>1</v>
@@ -48763,7 +48763,7 @@
         <v>400000</v>
       </c>
       <c r="G2005">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2005">
         <v>4</v>
@@ -48783,7 +48783,7 @@
         <v>1</v>
       </c>
       <c r="G2006">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2006">
         <v>2</v>
@@ -48806,7 +48806,7 @@
         <v>300000</v>
       </c>
       <c r="G2007">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2007">
         <v>1</v>
@@ -48875,7 +48875,7 @@
         <v>200000</v>
       </c>
       <c r="G2010">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2010">
         <v>1</v>
@@ -48924,7 +48924,7 @@
         <v>400000</v>
       </c>
       <c r="G2012">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2012">
         <v>2</v>
@@ -48950,7 +48950,7 @@
         <v>150000</v>
       </c>
       <c r="G2013">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2013">
         <v>1</v>
@@ -48990,7 +48990,7 @@
         <v>330000</v>
       </c>
       <c r="G2015">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2015">
         <v>2</v>
@@ -49013,7 +49013,7 @@
         <v>1</v>
       </c>
       <c r="G2016">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2016">
         <v>2</v>
@@ -49036,7 +49036,7 @@
         <v>500000</v>
       </c>
       <c r="G2017">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2017">
         <v>2</v>
@@ -49059,7 +49059,7 @@
         <v>450000</v>
       </c>
       <c r="G2018">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2018">
         <v>2</v>
@@ -49079,7 +49079,7 @@
         <v>1</v>
       </c>
       <c r="G2019">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2019">
         <v>2</v>
@@ -49102,7 +49102,7 @@
         <v>600000</v>
       </c>
       <c r="G2020">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2020">
         <v>2</v>
@@ -49125,7 +49125,7 @@
         <v>260000</v>
       </c>
       <c r="G2021">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2021">
         <v>2</v>
@@ -49145,7 +49145,7 @@
         <v>600000</v>
       </c>
       <c r="G2022">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2022">
         <v>2</v>
@@ -49168,7 +49168,7 @@
         <v>700000</v>
       </c>
       <c r="G2023">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2023">
         <v>2</v>
@@ -49217,7 +49217,7 @@
         <v>150000</v>
       </c>
       <c r="G2025">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2025">
         <v>1</v>
@@ -49263,7 +49263,7 @@
         <v>0</v>
       </c>
       <c r="G2027">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2027">
         <v>2</v>
@@ -49286,7 +49286,7 @@
         <v>150000</v>
       </c>
       <c r="G2028">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2028">
         <v>2</v>
@@ -49329,7 +49329,7 @@
         <v>0</v>
       </c>
       <c r="G2030">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2030">
         <v>2</v>
@@ -49346,7 +49346,7 @@
         <v>110000</v>
       </c>
       <c r="G2031">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2031">
         <v>2</v>
@@ -49369,7 +49369,7 @@
         <v>0</v>
       </c>
       <c r="G2032">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2032">
         <v>2</v>
@@ -49415,7 +49415,7 @@
         <v>0</v>
       </c>
       <c r="G2034">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2034">
         <v>1</v>
@@ -49438,7 +49438,7 @@
         <v>400000</v>
       </c>
       <c r="G2035">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2035">
         <v>2</v>
@@ -49464,7 +49464,7 @@
         <v>420000</v>
       </c>
       <c r="G2036">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2036">
         <v>4</v>
@@ -49484,7 +49484,7 @@
         <v>220000</v>
       </c>
       <c r="G2037">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2037">
         <v>2</v>
@@ -49524,7 +49524,7 @@
         <v>30000</v>
       </c>
       <c r="G2039">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2039">
         <v>2</v>
@@ -49550,7 +49550,7 @@
         <v>150000</v>
       </c>
       <c r="G2040">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2040">
         <v>2</v>
